--- a/output/endemo2_industry_coef_total.xlsx
+++ b/output/endemo2_industry_coef_total.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -593,7 +593,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -858,7 +858,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13985,7 +13985,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14515,7 +14515,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14780,7 +14780,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15257,7 +15257,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16095,7 +16095,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17102,7 +17102,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17155,7 +17155,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17261,7 +17261,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -17367,7 +17367,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -17622,7 +17622,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17940,7 +17940,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18417,7 +18417,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18523,7 +18523,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18629,7 +18629,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18947,7 +18947,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19265,7 +19265,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -19520,7 +19520,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -19573,7 +19573,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19732,7 +19732,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19785,7 +19785,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19997,7 +19997,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20209,7 +20209,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20262,7 +20262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20421,7 +20421,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20527,7 +20527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20633,7 +20633,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20898,7 +20898,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21110,7 +21110,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -21269,7 +21269,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -21524,7 +21524,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21577,7 +21577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21630,7 +21630,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21683,7 +21683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21895,7 +21895,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22107,7 +22107,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22425,7 +22425,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22478,7 +22478,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22531,7 +22531,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -22849,7 +22849,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -22955,7 +22955,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -23061,7 +23061,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -23114,7 +23114,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -23167,7 +23167,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24005,7 +24005,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24111,7 +24111,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -24429,7 +24429,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -24482,7 +24482,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24641,7 +24641,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24694,7 +24694,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24800,7 +24800,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24906,7 +24906,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -24959,7 +24959,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -25065,7 +25065,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -25267,7 +25267,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25373,7 +25373,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25532,7 +25532,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25638,7 +25638,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25744,7 +25744,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25797,7 +25797,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26062,7 +26062,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26168,7 +26168,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26274,7 +26274,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -26433,7 +26433,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26539,7 +26539,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26592,7 +26592,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26857,7 +26857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -27165,7 +27165,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -27324,7 +27324,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -27483,7 +27483,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27642,7 +27642,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -27695,7 +27695,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -27801,7 +27801,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -27907,7 +27907,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -27960,7 +27960,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -28066,7 +28066,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -28172,7 +28172,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -28225,7 +28225,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -28278,7 +28278,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -28331,7 +28331,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -28490,7 +28490,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28702,7 +28702,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28861,7 +28861,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="E35" t="n">

--- a/output/endemo2_industry_coef_total.xlsx
+++ b/output/endemo2_industry_coef_total.xlsx
@@ -547,34 +547,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>358468.3128678</v>
+        <v>347431.9689264774</v>
       </c>
       <c r="G2" t="n">
-        <v>-175.2491436</v>
+        <v>-169.683737034825</v>
       </c>
       <c r="H2" t="n">
-        <v>-3353465.4331608</v>
+        <v>-3360281.606519952</v>
       </c>
       <c r="I2" t="n">
-        <v>3544.2808168</v>
+        <v>3545.617965446686</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.931746</v>
+        <v>-0.930686938521</v>
       </c>
       <c r="K2" t="n">
-        <v>19012.0691433</v>
+        <v>18736.07818054047</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3208508</v>
+        <v>-0.309977044647</v>
       </c>
       <c r="M2" t="n">
-        <v>13077.1685311</v>
+        <v>13031.59696268045</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06880310000000001</v>
+        <v>0.06459931477</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.1e-06</v>
+        <v>-5.868031e-06</v>
       </c>
     </row>
     <row r="3">
@@ -600,34 +600,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>98929.6912604</v>
+        <v>96868.91543564876</v>
       </c>
       <c r="G3" t="n">
-        <v>-48.9546772</v>
+        <v>-47.915469350862</v>
       </c>
       <c r="H3" t="n">
-        <v>-5899871.4072044</v>
+        <v>-5901143.191444528</v>
       </c>
       <c r="I3" t="n">
-        <v>5962.1225508</v>
+        <v>5962.372040388468</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.5057809</v>
+        <v>-1.505583268872</v>
       </c>
       <c r="K3" t="n">
-        <v>3557.1001686</v>
+        <v>3523.441822920278</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4903269</v>
+        <v>-0.480990112596</v>
       </c>
       <c r="M3" t="n">
-        <v>2554.4158956</v>
+        <v>2212.874994822212</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0947591</v>
+        <v>0.035528607572</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.64e-05</v>
+        <v>-4.7359727e-05</v>
       </c>
     </row>
     <row r="4">
@@ -653,34 +653,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>291128.1327387</v>
+        <v>287711.1566607772</v>
       </c>
       <c r="G4" t="n">
-        <v>-142.3155087</v>
+        <v>-140.59239627253</v>
       </c>
       <c r="H4" t="n">
-        <v>6683615.6292389</v>
+        <v>6681503.880068035</v>
       </c>
       <c r="I4" t="n">
-        <v>-6547.8847865</v>
+        <v>-6547.470518655184</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6046015</v>
+        <v>1.604929629595</v>
       </c>
       <c r="K4" t="n">
-        <v>8400.567098899999</v>
+        <v>8319.732860776621</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1907897</v>
+        <v>-0.182465158331</v>
       </c>
       <c r="M4" t="n">
-        <v>6439.5438913</v>
+        <v>5291.852288930223</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09110749999999999</v>
+        <v>0.252527566876</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.7e-06</v>
+        <v>-1.4979092e-05</v>
       </c>
     </row>
     <row r="5">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13030.9222661</v>
+        <v>13131.77342464458</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.5003953</v>
+        <v>-6.551252470469</v>
       </c>
       <c r="H5" t="n">
-        <v>2143910.4247259</v>
+        <v>2143972.326333793</v>
       </c>
       <c r="I5" t="n">
-        <v>-2141.7405945</v>
+        <v>-2141.752737926849</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5348798</v>
+        <v>0.534870191645</v>
       </c>
       <c r="K5" t="n">
-        <v>498.3174432</v>
+        <v>499.330200441786</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0101578</v>
+        <v>-0.010188574214</v>
       </c>
       <c r="M5" t="n">
-        <v>2833.7565691</v>
+        <v>2840.25494412633</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1247249</v>
+        <v>-0.125003478924</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3e-06</v>
+        <v>1.349481e-06</v>
       </c>
     </row>
     <row r="6">
@@ -759,34 +759,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>265446.588845</v>
+        <v>234430.5225842791</v>
       </c>
       <c r="G6" t="n">
-        <v>-117.1662714</v>
+        <v>-101.525492178751</v>
       </c>
       <c r="H6" t="n">
-        <v>17306088.4610794</v>
+        <v>17286927.53380825</v>
       </c>
       <c r="I6" t="n">
-        <v>-17192.6806328</v>
+        <v>-17188.92177783519</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2774335</v>
+        <v>4.280410531874</v>
       </c>
       <c r="K6" t="n">
-        <v>37965.1526835</v>
+        <v>37490.4307249741</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2015636</v>
+        <v>-0.179799442605</v>
       </c>
       <c r="M6" t="n">
-        <v>51681.3324168</v>
+        <v>48673.89435908956</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.1159336</v>
+        <v>-0.925054642955</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45e-05</v>
+        <v>1.1849068e-05</v>
       </c>
     </row>
     <row r="7">
@@ -812,34 +812,34 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3128.3473869</v>
+        <v>3147.265272479308</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.5598155</v>
+        <v>-1.569355456481</v>
       </c>
       <c r="H7" t="n">
-        <v>401566.5817103</v>
+        <v>401578.1935870294</v>
       </c>
       <c r="I7" t="n">
-        <v>-400.813426</v>
+        <v>-400.815703958496</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1000134</v>
+        <v>0.100011625316</v>
       </c>
       <c r="K7" t="n">
-        <v>49.3238817</v>
+        <v>49.290511501019</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0010161</v>
+        <v>-0.001012964568</v>
       </c>
       <c r="M7" t="n">
-        <v>104.7760208</v>
+        <v>105.585642842685</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.004694</v>
+        <v>-0.004750010452</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4.9425e-08</v>
       </c>
     </row>
     <row r="8">
@@ -865,34 +865,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>52283.4976724</v>
+        <v>52434.03569732468</v>
       </c>
       <c r="G8" t="n">
-        <v>-26.0457181</v>
+        <v>-26.121631352362</v>
       </c>
       <c r="H8" t="n">
-        <v>3716674.0824204</v>
+        <v>3716766.392581717</v>
       </c>
       <c r="I8" t="n">
-        <v>-3697.9352234</v>
+        <v>-3697.9533322009</v>
       </c>
       <c r="J8" t="n">
-        <v>0.919812</v>
+        <v>0.919797657925</v>
       </c>
       <c r="K8" t="n">
-        <v>1945.7277906</v>
+        <v>1997.986001160451</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0947988</v>
+        <v>-0.098112361021</v>
       </c>
       <c r="M8" t="n">
-        <v>9263.9131316</v>
+        <v>9246.669145390815</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.9100855</v>
+        <v>-0.907866077892</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2e-05</v>
+        <v>2.1968407e-05</v>
       </c>
     </row>
     <row r="9">
@@ -918,34 +918,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143060.0889767</v>
+        <v>139453.3253971919</v>
       </c>
       <c r="G9" t="n">
-        <v>-69.1674572</v>
+        <v>-67.34863875228</v>
       </c>
       <c r="H9" t="n">
-        <v>12073610.7418079</v>
+        <v>12071380.74852904</v>
       </c>
       <c r="I9" t="n">
-        <v>-12024.1331527</v>
+        <v>-12023.69568848627</v>
       </c>
       <c r="J9" t="n">
-        <v>2.9947309</v>
+        <v>2.995077364559</v>
       </c>
       <c r="K9" t="n">
-        <v>8967.9457014</v>
+        <v>8888.249075568932</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1905879</v>
+        <v>-0.185675644538</v>
       </c>
       <c r="M9" t="n">
-        <v>17369.7741279</v>
+        <v>17469.09547187923</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.0539265</v>
+        <v>-1.067718637832</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1e-05</v>
+        <v>2.1447219e-05</v>
       </c>
     </row>
     <row r="10">
@@ -971,34 +971,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>473672.7335968</v>
+        <v>464254.3873910302</v>
       </c>
       <c r="G10" t="n">
-        <v>-230.6357049</v>
+        <v>-225.8862220588</v>
       </c>
       <c r="H10" t="n">
-        <v>31449666.8213873</v>
+        <v>31443843.669714</v>
       </c>
       <c r="I10" t="n">
-        <v>-31270.0200116</v>
+        <v>-31268.8776669775</v>
       </c>
       <c r="J10" t="n">
-        <v>7.7753969</v>
+        <v>7.776301626084</v>
       </c>
       <c r="K10" t="n">
-        <v>29643.024597</v>
+        <v>29371.95702714333</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.5400311</v>
+        <v>-0.528766936679</v>
       </c>
       <c r="M10" t="n">
-        <v>67574.4136885</v>
+        <v>67311.74772940409</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.1967896</v>
+        <v>-3.186123166467</v>
       </c>
       <c r="O10" t="n">
-        <v>4.49e-05</v>
+        <v>4.4903509e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1077,34 +1077,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>275849.3046113</v>
+        <v>266525.5423695106</v>
       </c>
       <c r="G12" t="n">
-        <v>-133.1081686</v>
+        <v>-128.406382620155</v>
       </c>
       <c r="H12" t="n">
-        <v>-17282376.9871874</v>
+        <v>-17288132.80085637</v>
       </c>
       <c r="I12" t="n">
-        <v>17461.0498129</v>
+        <v>17462.17894764377</v>
       </c>
       <c r="J12" t="n">
-        <v>-4.4073542</v>
+        <v>-4.406459910612</v>
       </c>
       <c r="K12" t="n">
-        <v>16535.8224417</v>
+        <v>16255.96129186023</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.2286664</v>
+        <v>-0.215730362695</v>
       </c>
       <c r="M12" t="n">
-        <v>34597.593017</v>
+        <v>34585.92434984519</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.6504027</v>
+        <v>-1.658709592888</v>
       </c>
       <c r="O12" t="n">
-        <v>2.69e-05</v>
+        <v>2.7355855e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1130,34 +1130,34 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35255.2636957</v>
+        <v>35255.26369574373</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.4295196</v>
+        <v>-17.429519595449</v>
       </c>
       <c r="H13" t="n">
-        <v>-12040690.6812948</v>
+        <v>-12040690.68129476</v>
       </c>
       <c r="I13" t="n">
-        <v>12027.5032855</v>
+        <v>12027.50328549906</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.0034502</v>
+        <v>-3.0034502403</v>
       </c>
       <c r="K13" t="n">
-        <v>744.2787059</v>
+        <v>744.278705852779</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0419164</v>
+        <v>-0.041916413446</v>
       </c>
       <c r="M13" t="n">
-        <v>-424.6335795</v>
+        <v>-424.633579548207</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2230354</v>
+        <v>0.223035376627</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.32e-05</v>
+        <v>-1.324107e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1183,34 +1183,34 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285735.1365832</v>
+        <v>285509.2685848279</v>
       </c>
       <c r="G14" t="n">
-        <v>-142.1959157</v>
+        <v>-142.082014983686</v>
       </c>
       <c r="H14" t="n">
-        <v>10338395.8468984</v>
+        <v>10338254.48755548</v>
       </c>
       <c r="I14" t="n">
-        <v>-10215.4286974</v>
+        <v>-10215.40096658515</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5233549</v>
+        <v>2.523376868572</v>
       </c>
       <c r="K14" t="n">
-        <v>7487.4328803</v>
+        <v>7491.849079750104</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.07244159999999999</v>
+        <v>-0.072525673978</v>
       </c>
       <c r="M14" t="n">
-        <v>8706.993020800001</v>
+        <v>8704.384628125883</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1095367</v>
+        <v>-0.109436039958</v>
       </c>
       <c r="O14" t="n">
-        <v>2e-07</v>
+        <v>2.46945e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1236,34 +1236,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>117274.7853316</v>
+        <v>116745.8388595278</v>
       </c>
       <c r="G15" t="n">
-        <v>-57.6679842</v>
+        <v>-57.401247108212</v>
       </c>
       <c r="H15" t="n">
-        <v>4806997.5587725</v>
+        <v>4806669.981164107</v>
       </c>
       <c r="I15" t="n">
-        <v>-4756.9879493</v>
+        <v>-4756.923687515529</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1771844</v>
+        <v>1.177235256467</v>
       </c>
       <c r="K15" t="n">
-        <v>1984.3408268</v>
+        <v>1975.890359976547</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0435571</v>
+        <v>-0.04192038728</v>
       </c>
       <c r="M15" t="n">
-        <v>2954.4532312</v>
+        <v>2765.434255140492</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.2394444</v>
+        <v>-0.201338299236</v>
       </c>
       <c r="O15" t="n">
-        <v>9.500000000000001e-06</v>
+        <v>7.710966999999999e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-98711.7667984</v>
+        <v>-103550.4971243016</v>
       </c>
       <c r="G16" t="n">
-        <v>52.3678524</v>
+        <v>54.807926950715</v>
       </c>
       <c r="H16" t="n">
-        <v>319211.4761354</v>
+        <v>316222.6447447081</v>
       </c>
       <c r="I16" t="n">
-        <v>-366.4106414</v>
+        <v>-365.824313622009</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1049044</v>
+        <v>0.10536881351</v>
       </c>
       <c r="K16" t="n">
-        <v>2742.0646144</v>
+        <v>2617.217606199061</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08654240000000001</v>
+        <v>0.090991311991</v>
       </c>
       <c r="M16" t="n">
-        <v>1919.6894738</v>
+        <v>2000.593964681659</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1352783</v>
+        <v>0.127543244583</v>
       </c>
       <c r="O16" t="n">
-        <v>-7e-07</v>
+        <v>-5.14533e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1342,34 +1342,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-166679.4154589</v>
+        <v>-170586.6518790954</v>
       </c>
       <c r="G17" t="n">
-        <v>86.0391304</v>
+        <v>88.009471281277</v>
       </c>
       <c r="H17" t="n">
-        <v>7884127.4808518</v>
+        <v>7881712.606215469</v>
       </c>
       <c r="I17" t="n">
-        <v>-7981.2431826</v>
+        <v>-7980.769449670619</v>
       </c>
       <c r="J17" t="n">
-        <v>2.0208623</v>
+        <v>2.021237507179</v>
       </c>
       <c r="K17" t="n">
-        <v>90.9454614</v>
+        <v>2.55700868835</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1427203</v>
+        <v>0.146000503073</v>
       </c>
       <c r="M17" t="n">
-        <v>9959.526377800001</v>
+        <v>9968.303488942289</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.4639216</v>
+        <v>-0.466741380196</v>
       </c>
       <c r="O17" t="n">
-        <v>8.8e-06</v>
+        <v>8.925176999999999e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>594567.1617918001</v>
+        <v>587053.9724717145</v>
       </c>
       <c r="G18" t="n">
-        <v>-293.2894598</v>
+        <v>-289.500709350257</v>
       </c>
       <c r="H18" t="n">
-        <v>15688504.0924362</v>
+        <v>15683860.62323796</v>
       </c>
       <c r="I18" t="n">
-        <v>-15418.1150833</v>
+        <v>-15417.20416062686</v>
       </c>
       <c r="J18" t="n">
-        <v>3.788784</v>
+        <v>3.789505439764</v>
       </c>
       <c r="K18" t="n">
-        <v>10525.8485533</v>
+        <v>10461.36172889309</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.4800728</v>
+        <v>-0.46330634112</v>
       </c>
       <c r="M18" t="n">
-        <v>18158.1332216</v>
+        <v>17539.49742147605</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.3380918</v>
+        <v>-2.186715826712</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001017</v>
+        <v>9.411114599999999e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1448,34 +1448,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>22968.0839701</v>
+        <v>22657.22028772445</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.3890646</v>
+        <v>-11.232302247553</v>
       </c>
       <c r="H19" t="n">
-        <v>-1594022.7226347</v>
+        <v>-1594214.437785921</v>
       </c>
       <c r="I19" t="n">
-        <v>1608.9108013</v>
+        <v>1608.94841066305</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4058867</v>
+        <v>-0.405856952759</v>
       </c>
       <c r="K19" t="n">
-        <v>790.9847564</v>
+        <v>783.9989132923311</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.035523</v>
+        <v>-0.034922062947</v>
       </c>
       <c r="M19" t="n">
-        <v>-1179.8017164</v>
+        <v>-1171.168386522102</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2469061</v>
+        <v>0.245404123257</v>
       </c>
       <c r="O19" t="n">
-        <v>-9.4e-06</v>
+        <v>-9.36487e-06</v>
       </c>
     </row>
     <row r="20">
@@ -1501,34 +1501,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>466159.7375494</v>
+        <v>461826.6244519192</v>
       </c>
       <c r="G20" t="n">
-        <v>-230.5379447</v>
+        <v>-228.352842763258</v>
       </c>
       <c r="H20" t="n">
-        <v>1414494.6519872</v>
+        <v>1411818.029604143</v>
       </c>
       <c r="I20" t="n">
-        <v>-1180.8135606</v>
+        <v>-1180.288479938228</v>
       </c>
       <c r="J20" t="n">
-        <v>0.238045</v>
+        <v>0.238460866648</v>
       </c>
       <c r="K20" t="n">
-        <v>6953.1683675</v>
+        <v>6900.394815200451</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.5110154</v>
+        <v>-0.496449513593</v>
       </c>
       <c r="M20" t="n">
-        <v>7130.0485102</v>
+        <v>6534.030173836827</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.5671821</v>
+        <v>-0.380167990285</v>
       </c>
       <c r="O20" t="n">
-        <v>4.1e-06</v>
+        <v>-8.377999000000001e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1607,34 +1607,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54298.557819</v>
+        <v>52409.13170313274</v>
       </c>
       <c r="G22" t="n">
-        <v>-24.9995111</v>
+        <v>-24.046711447596</v>
       </c>
       <c r="H22" t="n">
-        <v>8198322.2162133</v>
+        <v>8197153.672083097</v>
       </c>
       <c r="I22" t="n">
-        <v>-8185.6893478</v>
+        <v>-8185.460111215721</v>
       </c>
       <c r="J22" t="n">
-        <v>2.044261</v>
+        <v>2.044442540416</v>
       </c>
       <c r="K22" t="n">
-        <v>2908.3059082</v>
+        <v>2890.060694248127</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09125900000000001</v>
+        <v>0.094815389869</v>
       </c>
       <c r="M22" t="n">
-        <v>3237.3332546</v>
+        <v>2866.923094100054</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0311245</v>
+        <v>0.099044721904</v>
       </c>
       <c r="O22" t="n">
-        <v>2.5e-06</v>
+        <v>-1.76172e-07</v>
       </c>
     </row>
     <row r="23">
@@ -1660,34 +1660,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-51574.9486166</v>
+        <v>-53911.83615081757</v>
       </c>
       <c r="G23" t="n">
-        <v>27.1042161</v>
+        <v>28.282661518898</v>
       </c>
       <c r="H23" t="n">
-        <v>-7340805.6411313</v>
+        <v>-7342247.73512953</v>
       </c>
       <c r="I23" t="n">
-        <v>7331.2518126</v>
+        <v>7331.534712339015</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.8296963</v>
+        <v>-1.829472230447</v>
       </c>
       <c r="K23" t="n">
-        <v>1034.0584014</v>
+        <v>986.513252032133</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0441924</v>
+        <v>0.046076285739</v>
       </c>
       <c r="M23" t="n">
-        <v>-2788.3395239</v>
+        <v>-2825.942007250855</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2865439</v>
+        <v>0.287807110932</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.6e-06</v>
+        <v>-3.583538e-06</v>
       </c>
     </row>
     <row r="24">
@@ -1713,34 +1713,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-39298.8081686</v>
+        <v>-44281.64416050343</v>
       </c>
       <c r="G24" t="n">
-        <v>21.1735178</v>
+        <v>23.686261892726</v>
       </c>
       <c r="H24" t="n">
-        <v>-2038624.3108189</v>
+        <v>-2041701.708404086</v>
       </c>
       <c r="I24" t="n">
-        <v>2024.5905011</v>
+        <v>2025.194203174673</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.501858</v>
+        <v>-0.501379819855</v>
       </c>
       <c r="K24" t="n">
-        <v>1658.9677191</v>
+        <v>1565.126287203965</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0338871</v>
+        <v>0.037155263058</v>
       </c>
       <c r="M24" t="n">
-        <v>-1743.3269296</v>
+        <v>-2402.796177440752</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2146834</v>
+        <v>0.24790115507</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.3e-06</v>
+        <v>-2.662961e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1766,34 +1766,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>282526.2977602</v>
+        <v>277593.2040538682</v>
       </c>
       <c r="G25" t="n">
-        <v>-135.9798419</v>
+        <v>-133.492181826539</v>
       </c>
       <c r="H25" t="n">
-        <v>-16357498.3434559</v>
+        <v>-16360542.32715859</v>
       </c>
       <c r="I25" t="n">
-        <v>16538.0974532</v>
+        <v>16538.69460050569</v>
       </c>
       <c r="J25" t="n">
-        <v>-4.1768731</v>
+        <v>-4.176400119681</v>
       </c>
       <c r="K25" t="n">
-        <v>17697.3444291</v>
+        <v>17589.76400681704</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1893537</v>
+        <v>-0.185062993059</v>
       </c>
       <c r="M25" t="n">
-        <v>875.4132564</v>
+        <v>552.214806244369</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8550731</v>
+        <v>0.872532900645</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.52e-05</v>
+        <v>-1.5434995e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1819,34 +1819,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>25884.8733421</v>
+        <v>25948.82866816883</v>
       </c>
       <c r="G26" t="n">
-        <v>-12.8934124</v>
+        <v>-12.925663771047</v>
       </c>
       <c r="H26" t="n">
-        <v>1646522.0580987</v>
+        <v>1646561.263885593</v>
       </c>
       <c r="I26" t="n">
-        <v>-1636.8471185</v>
+        <v>-1636.854809619653</v>
       </c>
       <c r="J26" t="n">
-        <v>0.406802</v>
+        <v>0.406795939106</v>
       </c>
       <c r="K26" t="n">
-        <v>839.1020872</v>
+        <v>840.793579738156</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0118562</v>
+        <v>-0.011895031433</v>
       </c>
       <c r="M26" t="n">
-        <v>1372.8880442</v>
+        <v>1371.433614999319</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0323846</v>
+        <v>-0.032315643965</v>
       </c>
       <c r="O26" t="n">
-        <v>2e-07</v>
+        <v>1.82775e-07</v>
       </c>
     </row>
     <row r="27">
@@ -1872,34 +1872,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>32739.5963109</v>
+        <v>32765.78814481343</v>
       </c>
       <c r="G27" t="n">
-        <v>-16.3001318</v>
+        <v>-16.313339768045</v>
       </c>
       <c r="H27" t="n">
-        <v>778930.3697839</v>
+        <v>778946.4107311972</v>
       </c>
       <c r="I27" t="n">
-        <v>-764.0179328</v>
+        <v>-764.021079603398</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1873041</v>
+        <v>0.18730156607</v>
       </c>
       <c r="K27" t="n">
-        <v>2360.2318429</v>
+        <v>2364.544078478362</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0297269</v>
+        <v>-0.029795427807</v>
       </c>
       <c r="M27" t="n">
-        <v>19821.3202208</v>
+        <v>19942.51613076451</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.5122662</v>
+        <v>-0.5153952781160001</v>
       </c>
       <c r="O27" t="n">
-        <v>3.3e-06</v>
+        <v>3.307528e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1978,34 +1978,34 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3146.8166415</v>
+        <v>3141.923383134452</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.5656745</v>
+        <v>-1.563206919253</v>
       </c>
       <c r="H29" t="n">
-        <v>55679.151294</v>
+        <v>55676.11920964618</v>
       </c>
       <c r="I29" t="n">
-        <v>-54.2055129</v>
+        <v>-54.204918103546</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0131863</v>
+        <v>0.013186803373</v>
       </c>
       <c r="K29" t="n">
-        <v>23.9719623</v>
+        <v>23.744444386097</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0049386</v>
+        <v>-0.004848157639</v>
       </c>
       <c r="M29" t="n">
-        <v>7.5736005</v>
+        <v>1.262194349002</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0036739</v>
+        <v>0.006953033504</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.1e-06</v>
+        <v>-1.491657e-06</v>
       </c>
     </row>
     <row r="30">
@@ -2031,34 +2031,34 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>629.9011858</v>
+        <v>609.422043480312</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3106719</v>
+        <v>-0.300344716643</v>
       </c>
       <c r="H30" t="n">
-        <v>-172144.5336843</v>
+        <v>-172157.1513633913</v>
       </c>
       <c r="I30" t="n">
-        <v>172.8173338</v>
+        <v>172.819809051751</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0433687</v>
+        <v>-0.043366778477</v>
       </c>
       <c r="K30" t="n">
-        <v>25.404958</v>
+        <v>25.187480491534</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.005851</v>
+        <v>-0.005700946304</v>
       </c>
       <c r="M30" t="n">
-        <v>4.3494555</v>
+        <v>2.796357816529</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0123342</v>
+        <v>0.013623897179</v>
       </c>
       <c r="O30" t="n">
-        <v>-3.4e-06</v>
+        <v>-3.553158e-06</v>
       </c>
     </row>
     <row r="31">
@@ -2084,34 +2084,34 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36940.5897615</v>
+        <v>37313.7396615233</v>
       </c>
       <c r="G31" t="n">
-        <v>-17.9116802</v>
+        <v>-18.099852244755</v>
       </c>
       <c r="H31" t="n">
-        <v>5235876.185031</v>
+        <v>5236105.714735938</v>
       </c>
       <c r="I31" t="n">
-        <v>-5227.4865359</v>
+        <v>-5227.531563408027</v>
       </c>
       <c r="J31" t="n">
-        <v>1.3050037</v>
+        <v>1.304968058841</v>
       </c>
       <c r="K31" t="n">
-        <v>-289.6159485</v>
+        <v>-291.524781215943</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2682948</v>
+        <v>0.269015009915</v>
       </c>
       <c r="M31" t="n">
-        <v>-1694.9044002</v>
+        <v>-1759.116349726092</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9456712</v>
+        <v>0.97607900611</v>
       </c>
       <c r="O31" t="n">
-        <v>-7.669999999999999e-05</v>
+        <v>-7.9879964e-05</v>
       </c>
     </row>
     <row r="32">
@@ -2137,34 +2137,34 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>19843.9297411</v>
+        <v>20280.26654122479</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.681274999999999</v>
+        <v>-9.901310923781001</v>
       </c>
       <c r="H32" t="n">
-        <v>5562795.4719942</v>
+        <v>5563063.967357703</v>
       </c>
       <c r="I32" t="n">
-        <v>-5563.9760824</v>
+        <v>-5564.028753912875</v>
       </c>
       <c r="J32" t="n">
-        <v>1.3913564</v>
+        <v>1.391314697974</v>
       </c>
       <c r="K32" t="n">
-        <v>-383.2306075</v>
+        <v>-382.187517764736</v>
       </c>
       <c r="L32" t="n">
-        <v>0.202116</v>
+        <v>0.200758512582</v>
       </c>
       <c r="M32" t="n">
-        <v>142.6437127</v>
+        <v>154.256002156748</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.2276693</v>
+        <v>-0.237978013644</v>
       </c>
       <c r="O32" t="n">
-        <v>7.109999999999999e-05</v>
+        <v>7.2396377e-05</v>
       </c>
     </row>
     <row r="33">
@@ -2243,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>169.2543813</v>
+        <v>169.254381306425</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0839087</v>
+        <v>-0.083908656399</v>
       </c>
       <c r="H34" t="n">
-        <v>148242.9822288</v>
+        <v>148242.9822287896</v>
       </c>
       <c r="I34" t="n">
-        <v>-147.7621641</v>
+        <v>-147.762164067465</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0368195</v>
+        <v>0.036819532243</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2296,34 +2296,34 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>233.9944751</v>
+        <v>233.994475138119</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1160221</v>
+        <v>-0.116022099448</v>
       </c>
       <c r="H35" t="n">
-        <v>30675.0493213</v>
+        <v>30675.04932130397</v>
       </c>
       <c r="I35" t="n">
-        <v>-30.4558129</v>
+        <v>-30.455812935185</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0075595</v>
+        <v>0.007559508761</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8617491</v>
+        <v>3.861749080735</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0001984</v>
+        <v>-0.00019835359</v>
       </c>
       <c r="M35" t="n">
-        <v>5.5010439</v>
+        <v>5.50104394434</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0004824</v>
+        <v>-0.000482448113</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.0292e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4942.2450833</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4942.2450833</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2622.9848896</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2622.9848896</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>297.1598662</v>
+        <v>297.15986625</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>297.1598662</v>
+        <v>297.15986625</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1193.0465023</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1193.0465023</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2176.8173598</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2176.8173598</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1980.5271818</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1980.5271818</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.8125172</v>
+        <v>33.81251725</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.8125172</v>
+        <v>33.81251725</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>175.2603333</v>
+        <v>175.260333333333</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>175.2603333</v>
+        <v>175.260333333333</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1104.7296557</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1104.7296557</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15.8676667</v>
+        <v>15.867666666667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15.8676667</v>
+        <v>15.867666666667</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>952.7279167</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>952.7279167</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2320.4530333</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2320.4530333</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>304.9448478</v>
+        <v>304.94484775</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>304.9448478</v>
+        <v>304.94484775</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>10.3955889</v>
+        <v>10.395588888889</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>10.3955889</v>
+        <v>10.395588888889</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>66.7730691</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>66.7730691</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0030259</v>
+        <v>0.003025925926</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0030259</v>
+        <v>0.003025925926</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -8139,34 +8139,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-65110.3820731</v>
+        <v>-64921.59518754928</v>
       </c>
       <c r="G2" t="n">
-        <v>33.3608184</v>
+        <v>33.265205919339</v>
       </c>
       <c r="H2" t="n">
-        <v>1144787.3494181</v>
+        <v>1139751.228845216</v>
       </c>
       <c r="I2" t="n">
-        <v>-1183.3173399</v>
+        <v>-1178.198979589387</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3058517</v>
+        <v>0.304551279584</v>
       </c>
       <c r="K2" t="n">
-        <v>-473.0237542</v>
+        <v>-468.937600338922</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0607223</v>
+        <v>0.060519593352</v>
       </c>
       <c r="M2" t="n">
-        <v>519.6256719</v>
+        <v>518.207888156517</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0201807</v>
+        <v>-0.020017444496</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5e-06</v>
+        <v>1.455961e-06</v>
       </c>
     </row>
     <row r="3">
@@ -8192,34 +8192,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-2966.4873898</v>
+        <v>-3203.819390250193</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6336836</v>
+        <v>1.753882147306</v>
       </c>
       <c r="H3" t="n">
-        <v>-629878.9929323</v>
+        <v>-620756.3897097433</v>
       </c>
       <c r="I3" t="n">
-        <v>632.0594897</v>
+        <v>622.787914530008</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1584781</v>
+        <v>-0.15612241079</v>
       </c>
       <c r="K3" t="n">
-        <v>240.5938561</v>
+        <v>233.036371561503</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0131418</v>
+        <v>0.015238205723</v>
       </c>
       <c r="M3" t="n">
-        <v>146.1953824</v>
+        <v>73.54096151914</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0503828</v>
+        <v>0.078098308162</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.4e-06</v>
+        <v>-5.763658e-06</v>
       </c>
     </row>
     <row r="4">
@@ -8245,34 +8245,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-12789.5738586</v>
+        <v>-12938.46224064132</v>
       </c>
       <c r="G4" t="n">
-        <v>6.797547</v>
+        <v>6.872952584465</v>
       </c>
       <c r="H4" t="n">
-        <v>-1230348.5205614</v>
+        <v>-1227198.988952283</v>
       </c>
       <c r="I4" t="n">
-        <v>1231.179855</v>
+        <v>1227.978891592604</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3077884</v>
+        <v>-0.306975130327</v>
       </c>
       <c r="K4" t="n">
-        <v>654.6558659999999</v>
+        <v>652.771931925028</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0108221</v>
+        <v>0.011016118811</v>
       </c>
       <c r="M4" t="n">
-        <v>-435.3448043</v>
+        <v>-492.444002961011</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1675098</v>
+        <v>0.175540639724</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.4e-06</v>
+        <v>-5.665446e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8298,34 +8298,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-10023.5166598</v>
+        <v>-10061.00087243761</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2055961</v>
+        <v>5.224580296868</v>
       </c>
       <c r="H5" t="n">
-        <v>104448.8108131</v>
+        <v>106556.1641567508</v>
       </c>
       <c r="I5" t="n">
-        <v>-109.9082494</v>
+        <v>-112.050015784316</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0289376</v>
+        <v>0.029481786359</v>
       </c>
       <c r="K5" t="n">
-        <v>31.1000553</v>
+        <v>31.058041940776</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0077057</v>
+        <v>0.007707207372</v>
       </c>
       <c r="M5" t="n">
-        <v>134.975345</v>
+        <v>134.975291969881</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001716</v>
+        <v>0.001713505963</v>
       </c>
       <c r="O5" t="n">
-        <v>1e-07</v>
+        <v>7.8677e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8351,34 +8351,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-737058.0602085</v>
+        <v>-736904.0684281102</v>
       </c>
       <c r="G6" t="n">
-        <v>377.23446</v>
+        <v>377.156469763807</v>
       </c>
       <c r="H6" t="n">
-        <v>8065845.5697866</v>
+        <v>8086140.065714174</v>
       </c>
       <c r="I6" t="n">
-        <v>-8475.001805899999</v>
+        <v>-8495.627710669822</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2252982</v>
+        <v>2.230538721615</v>
       </c>
       <c r="K6" t="n">
-        <v>-9145.245707800001</v>
+        <v>-9073.602126330008</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7867087</v>
+        <v>0.783305462293</v>
       </c>
       <c r="M6" t="n">
-        <v>-4725.8819994</v>
+        <v>-4394.003340422669</v>
       </c>
       <c r="N6" t="n">
-        <v>0.477961</v>
+        <v>0.456486641764</v>
       </c>
       <c r="O6" t="n">
-        <v>5.1e-06</v>
+        <v>5.374326e-06</v>
       </c>
     </row>
     <row r="7">
@@ -8404,34 +8404,34 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2142.5143191</v>
+        <v>2159.312262157926</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.0475356</v>
+        <v>-1.056042995658</v>
       </c>
       <c r="H7" t="n">
-        <v>215961.5663947</v>
+        <v>215844.9175889477</v>
       </c>
       <c r="I7" t="n">
-        <v>-216.0648579</v>
+        <v>-215.946304191687</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0540516</v>
+        <v>0.054021493</v>
       </c>
       <c r="K7" t="n">
-        <v>69.1573654</v>
+        <v>69.13484227687201</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004869</v>
+        <v>-0.000484878909</v>
       </c>
       <c r="M7" t="n">
-        <v>141.624864</v>
+        <v>142.823976492945</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0055753</v>
+        <v>-0.005662744958</v>
       </c>
       <c r="O7" t="n">
-        <v>1e-07</v>
+        <v>7.029300000000001e-08</v>
       </c>
     </row>
     <row r="8">
@@ -8457,34 +8457,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-18262.0452355</v>
+        <v>-18350.54771511564</v>
       </c>
       <c r="G8" t="n">
-        <v>9.368130799999999</v>
+        <v>9.412953489435999</v>
       </c>
       <c r="H8" t="n">
-        <v>-692718.9746484</v>
+        <v>-690692.9470061352</v>
       </c>
       <c r="I8" t="n">
-        <v>687.6048060000001</v>
+        <v>685.545693342729</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1704969</v>
+        <v>-0.169973733895</v>
       </c>
       <c r="K8" t="n">
-        <v>-85.2923115</v>
+        <v>-90.81422960034401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0298055</v>
+        <v>0.030252878466</v>
       </c>
       <c r="M8" t="n">
-        <v>-280.8529619</v>
+        <v>-277.696163447444</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0602182</v>
+        <v>0.059585515373</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.1e-06</v>
+        <v>-1.024578e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8510,34 +8510,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-219394.3634915</v>
+        <v>-219237.5199793778</v>
       </c>
       <c r="G9" t="n">
-        <v>112.0105763</v>
+        <v>111.931141724644</v>
       </c>
       <c r="H9" t="n">
-        <v>1093931.5583902</v>
+        <v>1090709.634934977</v>
       </c>
       <c r="I9" t="n">
-        <v>-1208.6753977</v>
+        <v>-1205.400860316625</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3319975</v>
+        <v>0.331165503412</v>
       </c>
       <c r="K9" t="n">
-        <v>-2034.4761257</v>
+        <v>-2032.941442104282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2986259</v>
+        <v>0.298506317828</v>
       </c>
       <c r="M9" t="n">
-        <v>-617.4629586</v>
+        <v>-613.952237403666</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1165393</v>
+        <v>0.11592272805</v>
       </c>
       <c r="O9" t="n">
-        <v>5.1e-06</v>
+        <v>5.125377e-06</v>
       </c>
     </row>
     <row r="10">
@@ -8563,34 +8563,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-237234.165123</v>
+        <v>-238785.9616434507</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5539594</v>
+        <v>123.339878104421</v>
       </c>
       <c r="H10" t="n">
-        <v>-8566565.6968308</v>
+        <v>-8520124.847953537</v>
       </c>
       <c r="I10" t="n">
-        <v>8498.5641664</v>
+        <v>8451.364939083573</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.1055833</v>
+        <v>-2.093591142909</v>
       </c>
       <c r="K10" t="n">
-        <v>-574.3027765</v>
+        <v>-593.80877564557</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2665155</v>
+        <v>0.267549361659</v>
       </c>
       <c r="M10" t="n">
-        <v>-1302.2322923</v>
+        <v>-1285.151467868996</v>
       </c>
       <c r="N10" t="n">
-        <v>0.330633</v>
+        <v>0.328493965248</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.3e-06</v>
+        <v>-1.202552e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8616,34 +8616,34 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-10447.2155466</v>
+        <v>-10202.2298919718</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4113241</v>
+        <v>5.287249336489</v>
       </c>
       <c r="H11" t="n">
-        <v>-663408.38982</v>
+        <v>-676884.2119113929</v>
       </c>
       <c r="I11" t="n">
-        <v>662.0317792</v>
+        <v>675.727661229216</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.165063</v>
+        <v>-0.16854273347</v>
       </c>
       <c r="K11" t="n">
-        <v>130.764235</v>
+        <v>141.935348610141</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0252791</v>
+        <v>0.023858184718</v>
       </c>
       <c r="M11" t="n">
-        <v>-845.9585506</v>
+        <v>-781.630755777789</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2200845</v>
+        <v>0.207985007367</v>
       </c>
       <c r="O11" t="n">
-        <v>-9.4e-06</v>
+        <v>-8.888979999999999e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8669,34 +8669,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-286338.9838872</v>
+        <v>-287501.0845300435</v>
       </c>
       <c r="G12" t="n">
-        <v>146.951895</v>
+        <v>147.540449383074</v>
       </c>
       <c r="H12" t="n">
-        <v>-2138546.4044549</v>
+        <v>-2090076.293307897</v>
       </c>
       <c r="I12" t="n">
-        <v>2009.5393309</v>
+        <v>1960.277703478292</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4682221</v>
+        <v>-0.455705960514</v>
       </c>
       <c r="K12" t="n">
-        <v>-2107.6224104</v>
+        <v>-2104.572213922021</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3298381</v>
+        <v>0.329653035911</v>
       </c>
       <c r="M12" t="n">
-        <v>2537.6292651</v>
+        <v>2542.703588890409</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1345572</v>
+        <v>-0.135237633256</v>
       </c>
       <c r="O12" t="n">
-        <v>1.02e-05</v>
+        <v>1.0267049e-05</v>
       </c>
     </row>
     <row r="13">
@@ -8722,34 +8722,34 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>384.1923968</v>
+        <v>411.196541730842</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1699456</v>
+        <v>-0.183622071821</v>
       </c>
       <c r="H13" t="n">
-        <v>-119686.1064249</v>
+        <v>-121321.6731463051</v>
       </c>
       <c r="I13" t="n">
-        <v>120.573243</v>
+        <v>122.235518531491</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0303527</v>
+        <v>-0.030775078919</v>
       </c>
       <c r="K13" t="n">
-        <v>11.6388151</v>
+        <v>11.580001723974</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0023929</v>
+        <v>0.002333018376</v>
       </c>
       <c r="M13" t="n">
-        <v>-120.1847732</v>
+        <v>-119.308276847007</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0321273</v>
+        <v>0.031920814552</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.5e-06</v>
+        <v>-1.483578e-06</v>
       </c>
     </row>
     <row r="14">
@@ -8775,34 +8775,34 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1421.9823998</v>
+        <v>1417.281305941856</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7013382</v>
+        <v>-0.698964736331</v>
       </c>
       <c r="H14" t="n">
-        <v>-684194.1607305</v>
+        <v>-730999.960427325</v>
       </c>
       <c r="I14" t="n">
-        <v>682.3601719</v>
+        <v>728.977301365342</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1701274</v>
+        <v>-0.181734490163</v>
       </c>
       <c r="K14" t="n">
-        <v>16.0528104</v>
+        <v>15.623863433225</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.99e-05</v>
+        <v>-1.4549576e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>-233.7618882</v>
+        <v>-239.105872311352</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0052613</v>
+        <v>0.005369457013</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>-2.8123e-08</v>
       </c>
     </row>
     <row r="15">
@@ -8828,34 +8828,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-14108.8284994</v>
+        <v>-14362.19922992502</v>
       </c>
       <c r="G15" t="n">
-        <v>7.304719</v>
+        <v>7.433040439178</v>
       </c>
       <c r="H15" t="n">
-        <v>-277397.721097</v>
+        <v>-266391.0735459948</v>
       </c>
       <c r="I15" t="n">
-        <v>272.0691173</v>
+        <v>260.882731390033</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0665572</v>
+        <v>-0.06371498936</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0326259</v>
+        <v>0.013729079398</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0482706</v>
+        <v>0.048855370256</v>
       </c>
       <c r="M15" t="n">
-        <v>252.1213391</v>
+        <v>181.210838974029</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0020259</v>
+        <v>0.012269608415</v>
       </c>
       <c r="O15" t="n">
-        <v>2.4e-06</v>
+        <v>1.769636e-06</v>
       </c>
     </row>
     <row r="16">
@@ -8881,34 +8881,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-74821.1658095</v>
+        <v>-75902.36120619132</v>
       </c>
       <c r="G16" t="n">
-        <v>38.7654198</v>
+        <v>39.312999167338</v>
       </c>
       <c r="H16" t="n">
-        <v>-2972665.0752038</v>
+        <v>-2931236.634204287</v>
       </c>
       <c r="I16" t="n">
-        <v>2952.8492297</v>
+        <v>2910.744262813662</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.73255</v>
+        <v>-0.721852181883</v>
       </c>
       <c r="K16" t="n">
-        <v>223.9502741</v>
+        <v>199.067571124681</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0654932</v>
+        <v>0.06656529256</v>
       </c>
       <c r="M16" t="n">
-        <v>-1477.7531778</v>
+        <v>-1456.063215588489</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1857759</v>
+        <v>0.18368761216</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.9e-06</v>
+        <v>-1.857808e-06</v>
       </c>
     </row>
     <row r="17">
@@ -8934,34 +8934,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-185841.6054056</v>
+        <v>-186199.3632006804</v>
       </c>
       <c r="G17" t="n">
-        <v>94.8710312</v>
+        <v>95.05222022888</v>
       </c>
       <c r="H17" t="n">
-        <v>-31241.2665476</v>
+        <v>-14056.59133389211</v>
       </c>
       <c r="I17" t="n">
-        <v>-60.5957084</v>
+        <v>-78.061009147945</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0390816</v>
+        <v>0.04351912021</v>
       </c>
       <c r="K17" t="n">
-        <v>-1756.1367893</v>
+        <v>-1761.672562613272</v>
       </c>
       <c r="L17" t="n">
-        <v>0.152354</v>
+        <v>0.152616689603</v>
       </c>
       <c r="M17" t="n">
-        <v>-726.3462347</v>
+        <v>-718.45017324306</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07271950000000001</v>
+        <v>0.071855816861</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3e-06</v>
+        <v>1.361544e-06</v>
       </c>
     </row>
     <row r="18">
@@ -8987,34 +8987,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-119808.1620929</v>
+        <v>-119399.1475992635</v>
       </c>
       <c r="G18" t="n">
-        <v>61.1812112</v>
+        <v>60.974062793755</v>
       </c>
       <c r="H18" t="n">
-        <v>7403093.0811635</v>
+        <v>7407485.481161495</v>
       </c>
       <c r="I18" t="n">
-        <v>-7503.8793654</v>
+        <v>-7508.34349321662</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9017246</v>
+        <v>1.902858850339</v>
       </c>
       <c r="K18" t="n">
-        <v>-1025.9753667</v>
+        <v>-1029.621118039885</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4244304</v>
+        <v>0.425378306021</v>
       </c>
       <c r="M18" t="n">
-        <v>-793.9250098</v>
+        <v>-835.737627334861</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3679396</v>
+        <v>0.37817086871</v>
       </c>
       <c r="O18" t="n">
-        <v>3.1e-06</v>
+        <v>2.577882e-06</v>
       </c>
     </row>
     <row r="19">
@@ -9040,34 +9040,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-74972.2154196</v>
+        <v>-75083.22662597017</v>
       </c>
       <c r="G19" t="n">
-        <v>38.1543972</v>
+        <v>38.210619672853</v>
       </c>
       <c r="H19" t="n">
-        <v>1914206.1628089</v>
+        <v>1925599.177475735</v>
       </c>
       <c r="I19" t="n">
-        <v>-1962.1715997</v>
+        <v>-1973.750662090725</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5028472</v>
+        <v>0.505789102282</v>
       </c>
       <c r="K19" t="n">
-        <v>-639.2330419</v>
+        <v>-638.41084464672</v>
       </c>
       <c r="L19" t="n">
-        <v>0.116183</v>
+        <v>0.116087831253</v>
       </c>
       <c r="M19" t="n">
-        <v>222.8235271</v>
+        <v>225.196550127957</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0475047</v>
+        <v>-0.048115046077</v>
       </c>
       <c r="O19" t="n">
-        <v>6.4e-06</v>
+        <v>6.439257e-06</v>
       </c>
     </row>
     <row r="20">
@@ -9093,34 +9093,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4243.3082589</v>
+        <v>3764.959163635592</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.8887058</v>
+        <v>-1.646442418988</v>
       </c>
       <c r="H20" t="n">
-        <v>-1743251.3381367</v>
+        <v>-1726375.38322219</v>
       </c>
       <c r="I20" t="n">
-        <v>1755.3991316</v>
+        <v>1738.247592616725</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4417516</v>
+        <v>-0.437393825628</v>
       </c>
       <c r="K20" t="n">
-        <v>338.1344807</v>
+        <v>331.421071070861</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0070791</v>
+        <v>0.008932055655</v>
       </c>
       <c r="M20" t="n">
-        <v>412.5790519</v>
+        <v>338.884162182172</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0165601</v>
+        <v>0.006563323783</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7e-06</v>
+        <v>1.70665e-07</v>
       </c>
     </row>
     <row r="21">
@@ -9146,34 +9146,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-16401.4031254</v>
+        <v>-16383.26435744613</v>
       </c>
       <c r="G21" t="n">
-        <v>8.524569899999999</v>
+        <v>8.51538342281</v>
       </c>
       <c r="H21" t="n">
-        <v>-938986.889858</v>
+        <v>-942714.1153562309</v>
       </c>
       <c r="I21" t="n">
-        <v>936.2803477</v>
+        <v>940.06843876618</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.2332217</v>
+        <v>-0.234184120669</v>
       </c>
       <c r="K21" t="n">
-        <v>-64.1580051</v>
+        <v>-62.054130903634</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0380491</v>
+        <v>0.037893585923</v>
       </c>
       <c r="M21" t="n">
-        <v>-553.834915</v>
+        <v>-540.172792387427</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0932998</v>
+        <v>0.091815564702</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.5e-06</v>
+        <v>-1.479501e-06</v>
       </c>
     </row>
     <row r="22">
@@ -9199,34 +9199,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-25242.7339675</v>
+        <v>-24830.63649012639</v>
       </c>
       <c r="G22" t="n">
-        <v>12.938253</v>
+        <v>12.729516214354</v>
       </c>
       <c r="H22" t="n">
-        <v>447629.5699861</v>
+        <v>430462.3030133161</v>
       </c>
       <c r="I22" t="n">
-        <v>-462.5786775</v>
+        <v>-445.12417153066</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1195352</v>
+        <v>0.115098685073</v>
       </c>
       <c r="K22" t="n">
-        <v>223.9560465</v>
+        <v>227.952073503527</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0403411</v>
+        <v>0.039522162519</v>
       </c>
       <c r="M22" t="n">
-        <v>-1260.3475892</v>
+        <v>-1229.327659837917</v>
       </c>
       <c r="N22" t="n">
-        <v>0.306684</v>
+        <v>0.301086319684</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.1e-05</v>
+        <v>-1.0770451e-05</v>
       </c>
     </row>
     <row r="23">
@@ -9252,34 +9252,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-366064.1623417</v>
+        <v>-368978.4389738787</v>
       </c>
       <c r="G23" t="n">
-        <v>188.092545</v>
+        <v>189.568501735288</v>
       </c>
       <c r="H23" t="n">
-        <v>-12131324.8304455</v>
+        <v>-12032003.6673294</v>
       </c>
       <c r="I23" t="n">
-        <v>12019.2872896</v>
+        <v>11918.34421325009</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.9741565</v>
+        <v>-2.948509492586</v>
       </c>
       <c r="K23" t="n">
-        <v>-631.8378232</v>
+        <v>-683.1892343476879</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2964869</v>
+        <v>0.299049270043</v>
       </c>
       <c r="M23" t="n">
-        <v>-4708.2941238</v>
+        <v>-4687.157972239248</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6170844</v>
+        <v>0.614206116541</v>
       </c>
       <c r="O23" t="n">
-        <v>-5.4e-06</v>
+        <v>-5.341889e-06</v>
       </c>
     </row>
     <row r="24">
@@ -9305,34 +9305,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-329876.0900997</v>
+        <v>-329987.981124723</v>
       </c>
       <c r="G24" t="n">
-        <v>169.6638201</v>
+        <v>169.720488115638</v>
       </c>
       <c r="H24" t="n">
-        <v>-8336069.746802</v>
+        <v>-8355842.308865687</v>
       </c>
       <c r="I24" t="n">
-        <v>8220.725244699999</v>
+        <v>8240.820692418034</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.0238968</v>
+        <v>-2.029002527914</v>
       </c>
       <c r="K24" t="n">
-        <v>-1642.9080553</v>
+        <v>-1632.500449355515</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2681338</v>
+        <v>0.267714135081</v>
       </c>
       <c r="M24" t="n">
-        <v>-9878.2755696</v>
+        <v>-9867.674666388108</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7775197</v>
+        <v>0.77707301825</v>
       </c>
       <c r="O24" t="n">
-        <v>-7.2e-06</v>
+        <v>-7.170464e-06</v>
       </c>
     </row>
     <row r="25">
@@ -9358,34 +9358,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-9371.5957726</v>
+        <v>-10365.35409473125</v>
       </c>
       <c r="G25" t="n">
-        <v>7.0073678</v>
+        <v>7.510664003524</v>
       </c>
       <c r="H25" t="n">
-        <v>-5643349.7473126</v>
+        <v>-5614545.836205584</v>
       </c>
       <c r="I25" t="n">
-        <v>5672.5590779</v>
+        <v>5643.284799321505</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.4242211</v>
+        <v>-1.41678329817</v>
       </c>
       <c r="K25" t="n">
-        <v>3996.7259308</v>
+        <v>3977.861768058616</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0185096</v>
+        <v>0.01939737052</v>
       </c>
       <c r="M25" t="n">
-        <v>821.9643263</v>
+        <v>815.6687553917139</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2478962</v>
+        <v>0.247915592289</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.7e-06</v>
+        <v>-3.675121e-06</v>
       </c>
     </row>
     <row r="26">
@@ -9411,34 +9411,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-21147.4980129</v>
+        <v>-21572.53769827358</v>
       </c>
       <c r="G26" t="n">
-        <v>11.3993181</v>
+        <v>11.614582602173</v>
       </c>
       <c r="H26" t="n">
-        <v>-4492248.1624232</v>
+        <v>-4486364.365880073</v>
       </c>
       <c r="I26" t="n">
-        <v>4507.5566219</v>
+        <v>4501.576743022892</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.1302557</v>
+        <v>-1.128736398152</v>
       </c>
       <c r="K26" t="n">
-        <v>910.7629358</v>
+        <v>902.525432336013</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0122675</v>
+        <v>0.012511804301</v>
       </c>
       <c r="M26" t="n">
-        <v>-568.4216996</v>
+        <v>-563.3749259644291</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0833478</v>
+        <v>0.083042077206</v>
       </c>
       <c r="O26" t="n">
-        <v>-7e-07</v>
+        <v>-7.18097e-07</v>
       </c>
     </row>
     <row r="27">
@@ -9464,34 +9464,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-37772.912519</v>
+        <v>-37746.7633992585</v>
       </c>
       <c r="G27" t="n">
-        <v>19.5552562</v>
+        <v>19.542012772078</v>
       </c>
       <c r="H27" t="n">
-        <v>-1896671.3305514</v>
+        <v>-1903695.792949138</v>
       </c>
       <c r="I27" t="n">
-        <v>1888.8711868</v>
+        <v>1896.010358523489</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4699135</v>
+        <v>-0.471727387928</v>
       </c>
       <c r="K27" t="n">
-        <v>325.6882538</v>
+        <v>336.948812200926</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0140989</v>
+        <v>0.013919931926</v>
       </c>
       <c r="M27" t="n">
-        <v>-15232.7868242</v>
+        <v>-15242.76677727384</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4440593</v>
+        <v>0.444316995683</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.9e-06</v>
+        <v>-2.93153e-06</v>
       </c>
     </row>
     <row r="28">
@@ -9570,34 +9570,34 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-296.9354784</v>
+        <v>-315.870855136346</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1616634</v>
+        <v>0.171254646252</v>
       </c>
       <c r="H29" t="n">
-        <v>-75565.4071018</v>
+        <v>-74929.44525753462</v>
       </c>
       <c r="I29" t="n">
-        <v>75.851088</v>
+        <v>75.204485412433</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0190268</v>
+        <v>-0.018862414848</v>
       </c>
       <c r="K29" t="n">
-        <v>7.6764084</v>
+        <v>7.326560893154</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0041583</v>
+        <v>0.004300919094</v>
       </c>
       <c r="M29" t="n">
-        <v>48.1642701</v>
+        <v>41.637535490713</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.017109</v>
+        <v>-0.013712985256</v>
       </c>
       <c r="O29" t="n">
-        <v>2.7e-06</v>
+        <v>2.277248e-06</v>
       </c>
     </row>
     <row r="30">
@@ -9676,34 +9676,34 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-14442.1537341</v>
+        <v>-15029.67615415951</v>
       </c>
       <c r="G31" t="n">
-        <v>7.3099101</v>
+        <v>7.60750366817</v>
       </c>
       <c r="H31" t="n">
-        <v>1314577.1575888</v>
+        <v>1344771.231166242</v>
       </c>
       <c r="I31" t="n">
-        <v>-1329.1421896</v>
+        <v>-1359.841463791503</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3359566</v>
+        <v>0.343759550861</v>
       </c>
       <c r="K31" t="n">
-        <v>-326.4367763</v>
+        <v>-346.026368012142</v>
       </c>
       <c r="L31" t="n">
-        <v>0.124124</v>
+        <v>0.131515167096</v>
       </c>
       <c r="M31" t="n">
-        <v>1091.4939803</v>
+        <v>883.183577808212</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.5593462</v>
+        <v>-0.46070007528</v>
       </c>
       <c r="O31" t="n">
-        <v>7.73e-05</v>
+        <v>6.6905022e-05</v>
       </c>
     </row>
     <row r="32">
@@ -9782,34 +9782,34 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-602.1</v>
+        <v>-602.100000000098</v>
       </c>
       <c r="G33" t="n">
         <v>0.3</v>
       </c>
       <c r="H33" t="n">
-        <v>-602.1</v>
+        <v>-602.100000026725</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3</v>
+        <v>0.300000000027</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.5452321</v>
+        <v>-7.701300617658</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0001948</v>
+        <v>0.000179585875</v>
       </c>
       <c r="M33" t="n">
-        <v>105.6382857</v>
+        <v>109.380157982122</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0041475</v>
+        <v>-0.004271216226</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>4.2158e-08</v>
       </c>
     </row>
     <row r="34">
@@ -9835,34 +9835,34 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-2981.8179862</v>
+        <v>-3030.469062428414</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5370071</v>
+        <v>1.561646750041</v>
       </c>
       <c r="H34" t="n">
-        <v>131822.7940175</v>
+        <v>134514.9543057467</v>
       </c>
       <c r="I34" t="n">
-        <v>-134.0230678</v>
+        <v>-136.759191046701</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0340774</v>
+        <v>0.034772623614</v>
       </c>
       <c r="K34" t="n">
-        <v>-16.306245</v>
+        <v>-15.853062538472</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0111276</v>
+        <v>0.011155399282</v>
       </c>
       <c r="M34" t="n">
-        <v>-101.3338098</v>
+        <v>-113.757715830715</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0297516</v>
+        <v>0.032693819645</v>
       </c>
       <c r="O34" t="n">
-        <v>-9e-07</v>
+        <v>-1.043488e-06</v>
       </c>
     </row>
     <row r="35">
@@ -9888,34 +9888,34 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1258.1350448</v>
+        <v>-1274.355168509692</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6611545</v>
+        <v>0.669369303327</v>
       </c>
       <c r="H35" t="n">
-        <v>-50602.8378444</v>
+        <v>-49999.65763951032</v>
       </c>
       <c r="I35" t="n">
-        <v>50.2823915</v>
+        <v>49.669361412464</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0124739</v>
+        <v>-0.012318160516</v>
       </c>
       <c r="K35" t="n">
-        <v>25.2600254</v>
+        <v>25.329539524451</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0028561</v>
+        <v>0.002858759867</v>
       </c>
       <c r="M35" t="n">
-        <v>4.2139097</v>
+        <v>1.284586491405</v>
       </c>
       <c r="N35" t="n">
-        <v>0.006317</v>
+        <v>0.006824256453</v>
       </c>
       <c r="O35" t="n">
-        <v>-1e-07</v>
+        <v>-1.49679e-07</v>
       </c>
     </row>
   </sheetData>
@@ -10037,34 +10037,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-45144.6726936</v>
+        <v>-43144.00948208931</v>
       </c>
       <c r="G2" t="n">
-        <v>26.1387725</v>
+        <v>25.125521969302</v>
       </c>
       <c r="H2" t="n">
-        <v>-8742137.377278199</v>
+        <v>-8862691.717209753</v>
       </c>
       <c r="I2" t="n">
-        <v>8771.8705742</v>
+        <v>8894.393564830911</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.1985248</v>
+        <v>-2.229654796024</v>
       </c>
       <c r="K2" t="n">
-        <v>5306.30063</v>
+        <v>5340.014516579531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0544191</v>
+        <v>0.052746600485</v>
       </c>
       <c r="M2" t="n">
-        <v>849.4388948</v>
+        <v>806.253129564442</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4176628</v>
+        <v>0.422637074253</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.6e-06</v>
+        <v>-6.686938e-06</v>
       </c>
     </row>
     <row r="3">
@@ -10090,34 +10090,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53320.112946</v>
+        <v>52770.1097780997</v>
       </c>
       <c r="G3" t="n">
-        <v>-25.1017525</v>
+        <v>-24.823199387689</v>
       </c>
       <c r="H3" t="n">
-        <v>-12174509.3479434</v>
+        <v>-12187008.96641712</v>
       </c>
       <c r="I3" t="n">
-        <v>12271.2540815</v>
+        <v>12283.95781860786</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.09109</v>
+        <v>-3.094317648013</v>
       </c>
       <c r="K3" t="n">
-        <v>5434.8165943</v>
+        <v>5425.657826479453</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4204298</v>
+        <v>-0.417889172432</v>
       </c>
       <c r="M3" t="n">
-        <v>910.1117946000001</v>
+        <v>685.99757732784</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364606</v>
+        <v>1.450098932743</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0001641</v>
+        <v>-0.000171276282</v>
       </c>
     </row>
     <row r="4">
@@ -10143,34 +10143,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31473.3324373</v>
+        <v>29310.67200110636</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.4082106</v>
+        <v>-12.312915345866</v>
       </c>
       <c r="H4" t="n">
-        <v>-13515248.8748526</v>
+        <v>-13456578.98674174</v>
       </c>
       <c r="I4" t="n">
-        <v>13609.2316192</v>
+        <v>13549.60365267087</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.4244947</v>
+        <v>-3.40934473657</v>
       </c>
       <c r="K4" t="n">
-        <v>6742.515205</v>
+        <v>6713.123664881394</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1682649</v>
+        <v>-0.165238051371</v>
       </c>
       <c r="M4" t="n">
-        <v>18897.5277046</v>
+        <v>18854.21470764378</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.9155487</v>
+        <v>-1.90945687188</v>
       </c>
       <c r="O4" t="n">
-        <v>6.03e-05</v>
+        <v>6.0062646e-05</v>
       </c>
     </row>
     <row r="5">
@@ -10196,34 +10196,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13997.3164336</v>
+        <v>13976.38011733945</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.967452</v>
+        <v>-5.956848656384</v>
       </c>
       <c r="H5" t="n">
-        <v>-788139.4867265</v>
+        <v>-789666.4298893489</v>
       </c>
       <c r="I5" t="n">
-        <v>800.6646319</v>
+        <v>802.216509986773</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2027733</v>
+        <v>-0.203167566524</v>
       </c>
       <c r="K5" t="n">
-        <v>2409.0995277</v>
+        <v>2407.188365090107</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0072354</v>
+        <v>-0.007166266711</v>
       </c>
       <c r="M5" t="n">
-        <v>1704.1539672</v>
+        <v>1704.15333374232</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0334132</v>
+        <v>0.033383132512</v>
       </c>
       <c r="O5" t="n">
-        <v>-5e-07</v>
+        <v>-5.32277e-07</v>
       </c>
     </row>
     <row r="6">
@@ -10249,34 +10249,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>451276.9575616</v>
+        <v>445023.7706812948</v>
       </c>
       <c r="G6" t="n">
-        <v>-208.1811216</v>
+        <v>-205.014149251661</v>
       </c>
       <c r="H6" t="n">
-        <v>-24020865.8471012</v>
+        <v>-23805339.25973984</v>
       </c>
       <c r="I6" t="n">
-        <v>24401.1068073</v>
+        <v>24182.06067376355</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.1863469</v>
+        <v>-6.130692868607</v>
       </c>
       <c r="K6" t="n">
-        <v>59334.1610057</v>
+        <v>59205.78567582417</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.7219215</v>
+        <v>-0.715823286251</v>
       </c>
       <c r="M6" t="n">
-        <v>93545.0759515</v>
+        <v>93142.51766690952</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.1119808</v>
+        <v>-3.085933039111</v>
       </c>
       <c r="O6" t="n">
-        <v>3.93e-05</v>
+        <v>3.8974937e-05</v>
       </c>
     </row>
     <row r="7">
@@ -10302,34 +10302,34 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-70107.6858526</v>
+        <v>-70254.83315948976</v>
       </c>
       <c r="G7" t="n">
-        <v>36.2214385</v>
+        <v>36.295962318587</v>
       </c>
       <c r="H7" t="n">
-        <v>-245262.6495552</v>
+        <v>-238939.9004667603</v>
       </c>
       <c r="I7" t="n">
-        <v>212.3579938</v>
+        <v>205.931994273541</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0442777</v>
+        <v>-0.042644983825</v>
       </c>
       <c r="K7" t="n">
-        <v>966.4299688</v>
+        <v>966.522634150507</v>
       </c>
       <c r="L7" t="n">
-        <v>0.035806</v>
+        <v>0.035797559891</v>
       </c>
       <c r="M7" t="n">
-        <v>682.3422007</v>
+        <v>677.6764046408711</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0557537</v>
+        <v>0.056093728398</v>
       </c>
       <c r="O7" t="n">
-        <v>-3e-07</v>
+        <v>-2.75533e-07</v>
       </c>
     </row>
     <row r="8">
@@ -10355,34 +10355,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-273625.900018</v>
+        <v>-266460.5521738948</v>
       </c>
       <c r="G8" t="n">
-        <v>142.6812035</v>
+        <v>139.052260569826</v>
       </c>
       <c r="H8" t="n">
-        <v>-50943998.1477917</v>
+        <v>-51436712.3566368</v>
       </c>
       <c r="I8" t="n">
-        <v>51097.0169175</v>
+        <v>51597.77714244202</v>
       </c>
       <c r="J8" t="n">
-        <v>-12.8090336</v>
+        <v>-12.936263982064</v>
       </c>
       <c r="K8" t="n">
-        <v>-1233.5352539</v>
+        <v>-1216.210487494327</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7444245</v>
+        <v>0.743020970368</v>
       </c>
       <c r="M8" t="n">
-        <v>-6561.7017729</v>
+        <v>-6768.932257459272</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5730349</v>
+        <v>1.61456573755</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.87e-05</v>
+        <v>-3.0442718e-05</v>
       </c>
     </row>
     <row r="9">
@@ -10408,34 +10408,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-581880.9352915999</v>
+        <v>-585486.3603356364</v>
       </c>
       <c r="G9" t="n">
-        <v>305.0697244</v>
+        <v>306.895718345155</v>
       </c>
       <c r="H9" t="n">
-        <v>-98877125.0248751</v>
+        <v>-99015693.58555229</v>
       </c>
       <c r="I9" t="n">
-        <v>99151.1733594</v>
+        <v>99292.00474269304</v>
       </c>
       <c r="J9" t="n">
-        <v>-24.848191</v>
+        <v>-24.883972612455</v>
       </c>
       <c r="K9" t="n">
-        <v>5734.4466413</v>
+        <v>5589.946567789082</v>
       </c>
       <c r="L9" t="n">
-        <v>1.0543368</v>
+        <v>1.065599478774</v>
       </c>
       <c r="M9" t="n">
-        <v>-15083.8865736</v>
+        <v>-15003.73980220929</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7294985</v>
+        <v>3.715421740804</v>
       </c>
       <c r="O9" t="n">
-        <v>-7.49e-05</v>
+        <v>-7.438421799999999e-05</v>
       </c>
     </row>
     <row r="10">
@@ -10461,34 +10461,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>295935.4310101</v>
+        <v>292416.4897786006</v>
       </c>
       <c r="G10" t="n">
-        <v>-137.4675212</v>
+        <v>-135.685327609534</v>
       </c>
       <c r="H10" t="n">
-        <v>-37230896.202899</v>
+        <v>-37183776.6084187</v>
       </c>
       <c r="I10" t="n">
-        <v>37599.6694393</v>
+        <v>37551.78038253294</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.4864598</v>
+        <v>-9.474292384052999</v>
       </c>
       <c r="K10" t="n">
-        <v>28809.9551696</v>
+        <v>28715.88646113549</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2363901</v>
+        <v>-0.231404403355</v>
       </c>
       <c r="M10" t="n">
-        <v>-1987.9398088</v>
+        <v>-1958.552308730438</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4763494</v>
+        <v>2.472669180057</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.35e-05</v>
+        <v>-5.3356475e-05</v>
       </c>
     </row>
     <row r="11">
@@ -10514,34 +10514,34 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-52937.1667912</v>
+        <v>-53235.27769500893</v>
       </c>
       <c r="G11" t="n">
-        <v>27.8054364</v>
+        <v>27.956416860267</v>
       </c>
       <c r="H11" t="n">
-        <v>-6354895.8450459</v>
+        <v>-6360653.884830249</v>
       </c>
       <c r="I11" t="n">
-        <v>6365.0811244</v>
+        <v>6370.933192891413</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.5930809</v>
+        <v>-1.594567727731</v>
       </c>
       <c r="K11" t="n">
-        <v>1620.7133396</v>
+        <v>1613.468544454361</v>
       </c>
       <c r="L11" t="n">
-        <v>0.104542</v>
+        <v>0.105463461747</v>
       </c>
       <c r="M11" t="n">
-        <v>-9225.166148099999</v>
+        <v>-9351.311799945794</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2677309</v>
+        <v>2.291457681617</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0001045</v>
+        <v>-0.000105531924</v>
       </c>
     </row>
     <row r="12">
@@ -10567,34 +10567,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-130380.6590934</v>
+        <v>-127184.6131536697</v>
       </c>
       <c r="G12" t="n">
-        <v>82.3139564</v>
+        <v>80.695295548481</v>
       </c>
       <c r="H12" t="n">
-        <v>-96441045.0735859</v>
+        <v>-96890945.62410919</v>
       </c>
       <c r="I12" t="n">
-        <v>96932.7160694</v>
+        <v>97389.96348960708</v>
       </c>
       <c r="J12" t="n">
-        <v>-24.3465063</v>
+        <v>-24.462681190596</v>
       </c>
       <c r="K12" t="n">
-        <v>22605.9186325</v>
+        <v>22599.16062100789</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4395632</v>
+        <v>0.439973147685</v>
       </c>
       <c r="M12" t="n">
-        <v>-8248.589089700001</v>
+        <v>-8297.905078224971</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5241514</v>
+        <v>3.530764001874</v>
       </c>
       <c r="O12" t="n">
-        <v>-6.81e-05</v>
+        <v>-6.8259708e-05</v>
       </c>
     </row>
     <row r="13">
@@ -10620,34 +10620,34 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-18170.6943815</v>
+        <v>-18900.08154944571</v>
       </c>
       <c r="G13" t="n">
-        <v>9.344935100000001</v>
+        <v>9.714338588925999</v>
       </c>
       <c r="H13" t="n">
-        <v>2067100.8689248</v>
+        <v>2107662.905493887</v>
       </c>
       <c r="I13" t="n">
-        <v>-2087.6127658</v>
+        <v>-2128.837179828481</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5271387</v>
+        <v>0.537612757506</v>
       </c>
       <c r="K13" t="n">
-        <v>-354.4356019</v>
+        <v>-353.172832193598</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08776059999999999</v>
+        <v>0.08904595647999999</v>
       </c>
       <c r="M13" t="n">
-        <v>938.8734555</v>
+        <v>841.018103763926</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2039613</v>
+        <v>-0.180905473811</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47e-05</v>
+        <v>1.3535782e-05</v>
       </c>
     </row>
     <row r="14">
@@ -10673,34 +10673,34 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-33820.3065025</v>
+        <v>-34153.66537153639</v>
       </c>
       <c r="G14" t="n">
-        <v>17.2916464</v>
+        <v>17.460478439217</v>
       </c>
       <c r="H14" t="n">
-        <v>715795.8906487999</v>
+        <v>733699.2019701884</v>
       </c>
       <c r="I14" t="n">
-        <v>-736.525499</v>
+        <v>-754.721171189648</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1894965</v>
+        <v>0.194119572233</v>
       </c>
       <c r="K14" t="n">
-        <v>-69.6449248</v>
+        <v>-75.04479831978</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0097346</v>
+        <v>0.009861709656999999</v>
       </c>
       <c r="M14" t="n">
-        <v>-77.1418315</v>
+        <v>-70.261446368257</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0100056</v>
+        <v>0.009688620901999999</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>1.263e-09</v>
       </c>
     </row>
     <row r="15">
@@ -10726,34 +10726,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14417.4949899</v>
+        <v>14963.64446082321</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.6966574</v>
+        <v>-5.973258816015</v>
       </c>
       <c r="H15" t="n">
-        <v>-10036393.5417429</v>
+        <v>-10093270.3795812</v>
       </c>
       <c r="I15" t="n">
-        <v>10101.4404534</v>
+        <v>10159.24608918399</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.5407584</v>
+        <v>-2.555445383133</v>
       </c>
       <c r="K15" t="n">
-        <v>3498.6449195</v>
+        <v>3517.471072302649</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0720174</v>
+        <v>-0.075663806295</v>
       </c>
       <c r="M15" t="n">
-        <v>-4076.308608</v>
+        <v>-3843.15415773069</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4575341</v>
+        <v>1.410530326868</v>
       </c>
       <c r="O15" t="n">
-        <v>-7.41e-05</v>
+        <v>-7.188649199999999e-05</v>
       </c>
     </row>
     <row r="16">
@@ -10779,34 +10779,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29148.0497563</v>
+        <v>28876.67374051643</v>
       </c>
       <c r="G16" t="n">
-        <v>-13.1086168</v>
+        <v>-12.971176456798</v>
       </c>
       <c r="H16" t="n">
-        <v>-6261517.9943978</v>
+        <v>-6268488.901092512</v>
       </c>
       <c r="I16" t="n">
-        <v>6312.8111516</v>
+        <v>6319.895893148726</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.5902262</v>
+        <v>-1.592026237801</v>
       </c>
       <c r="K16" t="n">
-        <v>3675.2797271</v>
+        <v>3668.552493700629</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0190907</v>
+        <v>-0.018800845144</v>
       </c>
       <c r="M16" t="n">
-        <v>-652.0534816000001</v>
+        <v>-658.233257650875</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2867813</v>
+        <v>0.287376278549</v>
       </c>
       <c r="O16" t="n">
-        <v>-4.8e-06</v>
+        <v>-4.856618e-06</v>
       </c>
     </row>
     <row r="17">
@@ -10832,34 +10832,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10442.9445672</v>
+        <v>10529.59348401601</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.9263182</v>
+        <v>-2.970202204175</v>
       </c>
       <c r="H17" t="n">
-        <v>-4330381.3174721</v>
+        <v>-4347979.07090119</v>
       </c>
       <c r="I17" t="n">
-        <v>4362.224497</v>
+        <v>4380.109621458003</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.097323</v>
+        <v>-1.101867132999</v>
       </c>
       <c r="K17" t="n">
-        <v>4724.846708</v>
+        <v>4725.628111880152</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0033803</v>
+        <v>-0.003417365608</v>
       </c>
       <c r="M17" t="n">
-        <v>2012.2578363</v>
+        <v>2004.393802045698</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2063863</v>
+        <v>0.207246496708</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.5e-06</v>
+        <v>-3.551572e-06</v>
       </c>
     </row>
     <row r="18">
@@ -10885,34 +10885,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-125329.8571094</v>
+        <v>-125796.3517714768</v>
       </c>
       <c r="G18" t="n">
-        <v>70.2144481</v>
+        <v>70.450707762443</v>
       </c>
       <c r="H18" t="n">
-        <v>-20303116.8776289</v>
+        <v>-20344335.75010558</v>
       </c>
       <c r="I18" t="n">
-        <v>20361.0804552</v>
+        <v>20402.97243128123</v>
       </c>
       <c r="J18" t="n">
-        <v>-5.1007707</v>
+        <v>-5.111414420787</v>
       </c>
       <c r="K18" t="n">
-        <v>10763.71555</v>
+        <v>10775.6218560586</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4169982</v>
+        <v>0.413902613155</v>
       </c>
       <c r="M18" t="n">
-        <v>9026.7910935</v>
+        <v>9129.77284265589</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8398387</v>
+        <v>0.814639745748</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.32e-05</v>
+        <v>-2.1883267e-05</v>
       </c>
     </row>
     <row r="19">
@@ -10938,34 +10938,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-235601.1929382</v>
+        <v>-224745.5156444322</v>
       </c>
       <c r="G19" t="n">
-        <v>121.3476289</v>
+        <v>115.84969150978</v>
       </c>
       <c r="H19" t="n">
-        <v>-22528390.5271474</v>
+        <v>-23104790.5859363</v>
       </c>
       <c r="I19" t="n">
-        <v>22539.0687023</v>
+        <v>23124.88136593079</v>
       </c>
       <c r="J19" t="n">
-        <v>-5.6354251</v>
+        <v>-5.784265125016</v>
       </c>
       <c r="K19" t="n">
-        <v>-196.6941381</v>
+        <v>-59.19314200752</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4446837</v>
+        <v>0.428766740852</v>
       </c>
       <c r="M19" t="n">
-        <v>-3505.5662903</v>
+        <v>-3670.627865385956</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0729738</v>
+        <v>1.115430584233</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.46e-05</v>
+        <v>-2.6927696e-05</v>
       </c>
     </row>
     <row r="20">
@@ -10991,34 +10991,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>65863.1014003</v>
+        <v>64724.14207942939</v>
       </c>
       <c r="G20" t="n">
-        <v>-28.6657643</v>
+        <v>-28.088929983943</v>
       </c>
       <c r="H20" t="n">
-        <v>-26504178.6957982</v>
+        <v>-26533960.74065312</v>
       </c>
       <c r="I20" t="n">
-        <v>26690.2780605</v>
+        <v>26720.54644571241</v>
       </c>
       <c r="J20" t="n">
-        <v>-6.7166777</v>
+        <v>-6.724368106173</v>
       </c>
       <c r="K20" t="n">
-        <v>6196.1368261</v>
+        <v>6216.244317279484</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1486422</v>
+        <v>0.143092389843</v>
       </c>
       <c r="M20" t="n">
-        <v>7525.4967442</v>
+        <v>7809.744961701096</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.2734841</v>
+        <v>-0.362673345728</v>
       </c>
       <c r="O20" t="n">
-        <v>3.05e-05</v>
+        <v>3.6440053e-05</v>
       </c>
     </row>
     <row r="21">
@@ -11044,34 +11044,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-15804.2646186</v>
+        <v>-16173.16683726734</v>
       </c>
       <c r="G21" t="n">
-        <v>8.440843599999999</v>
+        <v>8.627676788531</v>
       </c>
       <c r="H21" t="n">
-        <v>-3487122.0094893</v>
+        <v>-3480737.569798784</v>
       </c>
       <c r="I21" t="n">
-        <v>3499.2123121</v>
+        <v>3492.723614576651</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.8775192000000001</v>
+        <v>-0.875870610738</v>
       </c>
       <c r="K21" t="n">
-        <v>1490.4623443</v>
+        <v>1486.352971289482</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0222036</v>
+        <v>-0.021899716336</v>
       </c>
       <c r="M21" t="n">
-        <v>-1220.4343407</v>
+        <v>-1292.707764585926</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2836694</v>
+        <v>0.291521336007</v>
       </c>
       <c r="O21" t="n">
-        <v>-8.399999999999999e-06</v>
+        <v>-8.599583999999999e-06</v>
       </c>
     </row>
     <row r="22">
@@ -11097,34 +11097,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-26460.7448166</v>
+        <v>-27595.02252245341</v>
       </c>
       <c r="G22" t="n">
-        <v>14.9046188</v>
+        <v>15.479082051239</v>
       </c>
       <c r="H22" t="n">
-        <v>-4245015.6179693</v>
+        <v>-4205232.423456461</v>
       </c>
       <c r="I22" t="n">
-        <v>4257.1008313</v>
+        <v>4216.667977747338</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.0664143</v>
+        <v>-1.056141377735</v>
       </c>
       <c r="K22" t="n">
-        <v>2251.4104886</v>
+        <v>2241.818760698978</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0791128</v>
+        <v>0.08098241495400001</v>
       </c>
       <c r="M22" t="n">
-        <v>1370.2045148</v>
+        <v>1127.64033650599</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2401658</v>
+        <v>0.284643575659</v>
       </c>
       <c r="O22" t="n">
-        <v>-6.7e-06</v>
+        <v>-8.483446999999999e-06</v>
       </c>
     </row>
     <row r="23">
@@ -11150,34 +11150,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>19212.9595831</v>
+        <v>20282.34765145896</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.913694700000001</v>
+        <v>-9.455294156878001</v>
       </c>
       <c r="H23" t="n">
-        <v>-345528.9211617</v>
+        <v>-396592.2864397437</v>
       </c>
       <c r="I23" t="n">
-        <v>357.8722477</v>
+        <v>409.769477061844</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0922036</v>
+        <v>-0.105389364403</v>
       </c>
       <c r="K23" t="n">
-        <v>1818.1442201</v>
+        <v>1834.086953978414</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0114215</v>
+        <v>-0.012217064246</v>
       </c>
       <c r="M23" t="n">
-        <v>1947.0287949</v>
+        <v>1939.181467453834</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0215578</v>
+        <v>-0.020489170653</v>
       </c>
       <c r="O23" t="n">
-        <v>2e-07</v>
+        <v>1.40212e-07</v>
       </c>
     </row>
     <row r="24">
@@ -11203,34 +11203,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>36643.985723</v>
+        <v>37909.06458324947</v>
       </c>
       <c r="G24" t="n">
-        <v>-17.0333536</v>
+        <v>-17.674062057433</v>
       </c>
       <c r="H24" t="n">
-        <v>4237212.8708027</v>
+        <v>4191267.043330694</v>
       </c>
       <c r="I24" t="n">
-        <v>-4241.1427821</v>
+        <v>-4194.446659952935</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0618676</v>
+        <v>1.050003338471</v>
       </c>
       <c r="K24" t="n">
-        <v>3561.034681</v>
+        <v>3581.677926138027</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0231399</v>
+        <v>-0.023972227323</v>
       </c>
       <c r="M24" t="n">
-        <v>6709.0845271</v>
+        <v>6731.928808281828</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.2178577</v>
+        <v>-0.218820354241</v>
       </c>
       <c r="O24" t="n">
-        <v>2.7e-06</v>
+        <v>2.742961e-06</v>
       </c>
     </row>
     <row r="25">
@@ -11256,34 +11256,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>313860.7554991</v>
+        <v>307485.9088591004</v>
       </c>
       <c r="G25" t="n">
-        <v>-151.1140293</v>
+        <v>-147.88544150507</v>
       </c>
       <c r="H25" t="n">
-        <v>-6235201.0884944</v>
+        <v>-5958036.959310913</v>
       </c>
       <c r="I25" t="n">
-        <v>6434.6496232</v>
+        <v>6152.959407691456</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.6555464</v>
+        <v>-1.583976137503</v>
       </c>
       <c r="K25" t="n">
-        <v>20765.8605018</v>
+        <v>20649.48605343324</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2428866</v>
+        <v>-0.237409705018</v>
       </c>
       <c r="M25" t="n">
-        <v>18204.217485</v>
+        <v>18162.28920205445</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0577997</v>
+        <v>-0.057670581128</v>
       </c>
       <c r="O25" t="n">
-        <v>-3e-06</v>
+        <v>-2.890637e-06</v>
       </c>
     </row>
     <row r="26">
@@ -11309,34 +11309,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>15115.850351</v>
+        <v>15048.38189410883</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.6887988</v>
+        <v>-6.654628944394</v>
       </c>
       <c r="H26" t="n">
-        <v>-154893.5949665</v>
+        <v>-152274.6044659128</v>
       </c>
       <c r="I26" t="n">
-        <v>164.2734019</v>
+        <v>161.611643311132</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0429769</v>
+        <v>-0.042300638467</v>
       </c>
       <c r="K26" t="n">
-        <v>2138.3397206</v>
+        <v>2137.830745254474</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0065131</v>
+        <v>-0.006498017419</v>
       </c>
       <c r="M26" t="n">
-        <v>2195.5730676</v>
+        <v>2196.602568025709</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0092634</v>
+        <v>-0.009325762616999999</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.879e-08</v>
       </c>
     </row>
     <row r="27">
@@ -11362,34 +11362,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-7433.9349446</v>
+        <v>-8126.429279203133</v>
       </c>
       <c r="G27" t="n">
-        <v>5.8346815</v>
+        <v>6.185400318728</v>
       </c>
       <c r="H27" t="n">
-        <v>-802641.1383461</v>
+        <v>-772794.6229193058</v>
       </c>
       <c r="I27" t="n">
-        <v>805.4983312000001</v>
+        <v>775.164422599254</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.2010215</v>
+        <v>-0.193314460312</v>
       </c>
       <c r="K27" t="n">
-        <v>3934.3100458</v>
+        <v>3887.52235181128</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0042955</v>
+        <v>0.005039238491</v>
       </c>
       <c r="M27" t="n">
-        <v>14069.9651547</v>
+        <v>13820.44410572365</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2758046</v>
+        <v>-0.269362455998</v>
       </c>
       <c r="O27" t="n">
-        <v>1.9e-06</v>
+        <v>1.869011e-06</v>
       </c>
     </row>
     <row r="28">
@@ -11468,34 +11468,34 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-19000.9015238</v>
+        <v>-18750.830117611</v>
       </c>
       <c r="G29" t="n">
-        <v>9.858597</v>
+        <v>9.731946549265</v>
       </c>
       <c r="H29" t="n">
-        <v>-750813.284305</v>
+        <v>-764772.7178980189</v>
       </c>
       <c r="I29" t="n">
-        <v>745.7721532</v>
+        <v>759.95954413554</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1849959</v>
+        <v>-0.188600519568</v>
       </c>
       <c r="K29" t="n">
-        <v>69.71541569999999</v>
+        <v>79.141337602647</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1680374</v>
+        <v>0.164291039893</v>
       </c>
       <c r="M29" t="n">
-        <v>-2232.2177483</v>
+        <v>-2134.980058949786</v>
       </c>
       <c r="N29" t="n">
-        <v>1.3770285</v>
+        <v>1.326508779305</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0001531</v>
+        <v>-0.000146902957</v>
       </c>
     </row>
     <row r="30">
@@ -11521,34 +11521,34 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-41521.2192816</v>
+        <v>-42533.85021753835</v>
       </c>
       <c r="G30" t="n">
-        <v>21.2455315</v>
+        <v>21.758385825503</v>
       </c>
       <c r="H30" t="n">
-        <v>2915603.9901922</v>
+        <v>2972111.343085022</v>
       </c>
       <c r="I30" t="n">
-        <v>-2952.4517987</v>
+        <v>-3009.881915875824</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7475358</v>
+        <v>0.762127303611</v>
       </c>
       <c r="K30" t="n">
-        <v>-415.2257455</v>
+        <v>-444.109189058451</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5425753</v>
+        <v>0.562507885563</v>
       </c>
       <c r="M30" t="n">
-        <v>769.64896</v>
+        <v>639.380611085861</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.4807796</v>
+        <v>-0.372606941282</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0001887</v>
+        <v>0.000171934684</v>
       </c>
     </row>
     <row r="31">
@@ -11574,34 +11574,34 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-17010.6266299</v>
+        <v>-17214.74055271246</v>
       </c>
       <c r="G31" t="n">
-        <v>9.6204567</v>
+        <v>9.723831686843001</v>
       </c>
       <c r="H31" t="n">
-        <v>-7591159.3811007</v>
+        <v>-7605277.606591742</v>
       </c>
       <c r="I31" t="n">
-        <v>7626.2157423</v>
+        <v>7640.564518224118</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.9146796</v>
+        <v>-1.918325216039</v>
       </c>
       <c r="K31" t="n">
-        <v>2287.7470439</v>
+        <v>2298.875292950843</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0453163</v>
+        <v>-0.049515005559</v>
       </c>
       <c r="M31" t="n">
-        <v>-1837.1940967</v>
+        <v>-1813.303688624924</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9429856</v>
+        <v>1.93167224447</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.000225</v>
+        <v>-0.000223822973</v>
       </c>
     </row>
     <row r="32">
@@ -11627,34 +11627,34 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-17938.1983677</v>
+        <v>-17451.27576566072</v>
       </c>
       <c r="G32" t="n">
-        <v>9.362735300000001</v>
+        <v>9.116129787002</v>
       </c>
       <c r="H32" t="n">
-        <v>-628588.0173077</v>
+        <v>-653226.6146281657</v>
       </c>
       <c r="I32" t="n">
-        <v>623.4347166</v>
+        <v>648.47566184917</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.154367</v>
+        <v>-0.160729277789</v>
       </c>
       <c r="K32" t="n">
-        <v>92.6265578</v>
+        <v>94.837355968455</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1983118</v>
+        <v>0.195434766974</v>
       </c>
       <c r="M32" t="n">
-        <v>-337.5478878</v>
+        <v>-325.847327144085</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5498837</v>
+        <v>0.539496592034</v>
       </c>
       <c r="O32" t="n">
-        <v>-5.81e-05</v>
+        <v>-5.6774005e-05</v>
       </c>
     </row>
     <row r="33">
@@ -11680,34 +11680,34 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3889.3100946</v>
+        <v>3848.484957424315</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.8777177</v>
+        <v>-1.85704155146</v>
       </c>
       <c r="H33" t="n">
-        <v>727560.7418567</v>
+        <v>731726.0535803954</v>
       </c>
       <c r="I33" t="n">
-        <v>-729.6046999</v>
+        <v>-733.838031103455</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1829379</v>
+        <v>0.184013485224</v>
       </c>
       <c r="K33" t="n">
-        <v>-22.5447082</v>
+        <v>-25.41459239026</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0033385</v>
+        <v>0.003438832965</v>
       </c>
       <c r="M33" t="n">
-        <v>61.003739</v>
+        <v>-7.631033193248</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0003666</v>
+        <v>0.002650363767</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>8.554e-09</v>
       </c>
     </row>
     <row r="34">
@@ -11733,34 +11733,34 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23316.8283879</v>
+        <v>23525.68796335571</v>
       </c>
       <c r="G34" t="n">
-        <v>-11.1018778</v>
+        <v>-11.207656266095</v>
       </c>
       <c r="H34" t="n">
-        <v>-1639592.3396012</v>
+        <v>-1654534.777049759</v>
       </c>
       <c r="I34" t="n">
-        <v>1661.126453</v>
+        <v>1676.312900291439</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.4203691</v>
+        <v>-0.42422760076</v>
       </c>
       <c r="K34" t="n">
-        <v>385.1519592</v>
+        <v>379.393957287222</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0466738</v>
+        <v>0.046320684963</v>
       </c>
       <c r="M34" t="n">
-        <v>152.6514373</v>
+        <v>235.667557304808</v>
       </c>
       <c r="N34" t="n">
-        <v>0.09759950000000001</v>
+        <v>0.07793960721</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.5e-06</v>
+        <v>-1.531865e-06</v>
       </c>
     </row>
     <row r="35">
@@ -11786,34 +11786,34 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-9255.5180569</v>
+        <v>-9714.716591927863</v>
       </c>
       <c r="G35" t="n">
-        <v>4.8643372</v>
+        <v>5.096901688035</v>
       </c>
       <c r="H35" t="n">
-        <v>-453839.3700218</v>
+        <v>-433789.6320721679</v>
       </c>
       <c r="I35" t="n">
-        <v>451.9396959</v>
+        <v>431.562545992282</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.112387</v>
+        <v>-0.107209655246</v>
       </c>
       <c r="K35" t="n">
-        <v>242.000039</v>
+        <v>246.938907066499</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0181758</v>
+        <v>0.018366186401</v>
       </c>
       <c r="M35" t="n">
-        <v>-83.32679</v>
+        <v>-223.810964474952</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0716734</v>
+        <v>0.096002312617</v>
       </c>
       <c r="O35" t="n">
-        <v>-2e-06</v>
+        <v>-2.930396e-06</v>
       </c>
     </row>
   </sheetData>
@@ -11935,7 +11935,7 @@
         <v>0.33</v>
       </c>
       <c r="F2" t="n">
-        <v>1696.262079</v>
+        <v>1696.262079019608</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1696.262079</v>
+        <v>1696.262079019608</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>1448.7715925</v>
+        <v>1448.77159254902</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1448.7715925</v>
+        <v>1448.77159254902</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>346.9094733</v>
+        <v>346.909473333333</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>346.9094733</v>
+        <v>346.909473333333</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -12147,7 +12147,7 @@
         <v>0.33</v>
       </c>
       <c r="F6" t="n">
-        <v>7038.4156124</v>
+        <v>7038.415612352941</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7038.4156124</v>
+        <v>7038.415612352941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>322.5593067</v>
+        <v>322.559306666667</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>322.5593067</v>
+        <v>322.559306666667</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0.33</v>
       </c>
       <c r="F9" t="n">
-        <v>3402.2591929</v>
+        <v>3402.259192941176</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3402.2591929</v>
+        <v>3402.259192941176</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -12359,7 +12359,7 @@
         <v>0.33</v>
       </c>
       <c r="F10" t="n">
-        <v>5747.4943659</v>
+        <v>5747.494365882352</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5747.4943659</v>
+        <v>5747.494365882352</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0.33</v>
       </c>
       <c r="F12" t="n">
-        <v>5078.7504794</v>
+        <v>5078.750479411765</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>5078.7504794</v>
+        <v>5078.750479411765</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0.33</v>
       </c>
       <c r="F13" t="n">
-        <v>27.4411765</v>
+        <v>27.441176470588</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>27.4411765</v>
+        <v>27.441176470588</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -12624,7 +12624,7 @@
         <v>0.33</v>
       </c>
       <c r="F15" t="n">
-        <v>612.8382433</v>
+        <v>612.838243333333</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>612.8382433</v>
+        <v>612.838243333333</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0.33</v>
       </c>
       <c r="F16" t="n">
-        <v>1308.1360596</v>
+        <v>1308.136059607843</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1308.1360596</v>
+        <v>1308.136059607843</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>0.33</v>
       </c>
       <c r="F20" t="n">
-        <v>450.0414933</v>
+        <v>450.041493333333</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>450.0414933</v>
+        <v>450.041493333333</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -12995,7 +12995,7 @@
         <v>0.33</v>
       </c>
       <c r="F22" t="n">
-        <v>341.5671227</v>
+        <v>341.567122745098</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>341.5671227</v>
+        <v>341.567122745098</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -13048,7 +13048,7 @@
         <v>0.33</v>
       </c>
       <c r="F23" t="n">
-        <v>580.8963427</v>
+        <v>580.896342745098</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>580.8963427</v>
+        <v>580.896342745098</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>447.4121933</v>
+        <v>447.412193333333</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -13116,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>447.4121933</v>
+        <v>447.412193333333</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>3363.4717829</v>
+        <v>3363.471782941177</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3363.4717829</v>
+        <v>3363.471782941177</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>0.33</v>
       </c>
       <c r="F35" t="n">
-        <v>134.9583333</v>
+        <v>134.958333333333</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>134.9583333</v>
+        <v>134.958333333333</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -13833,34 +13833,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-126875.0507686</v>
+        <v>-127841.5375250918</v>
       </c>
       <c r="G2" t="n">
-        <v>64.456917</v>
+        <v>64.944296854654</v>
       </c>
       <c r="H2" t="n">
-        <v>-4300406.7677858</v>
+        <v>-4301002.974207994</v>
       </c>
       <c r="I2" t="n">
-        <v>4246.5294766</v>
+        <v>4246.646436176825</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.0476134</v>
+        <v>-1.047520732772</v>
       </c>
       <c r="K2" t="n">
-        <v>-2383.5107802</v>
+        <v>-2410.392864806533</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1292105</v>
+        <v>0.130269660824</v>
       </c>
       <c r="M2" t="n">
-        <v>-3799.4532848</v>
+        <v>-3803.845028285049</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2221738</v>
+        <v>0.221768645303</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.5e-06</v>
+        <v>-1.433403e-06</v>
       </c>
     </row>
     <row r="3">
@@ -13886,34 +13886,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2329.592007</v>
+        <v>2304.782059414685</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7947299</v>
+        <v>-0.782218749522</v>
       </c>
       <c r="H3" t="n">
-        <v>-2458770.4868451</v>
+        <v>-2458785.359166426</v>
       </c>
       <c r="I3" t="n">
-        <v>2465.3418192</v>
+        <v>2465.344736743764</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6177697</v>
+        <v>-0.617767365885</v>
       </c>
       <c r="K3" t="n">
-        <v>900.9644919</v>
+        <v>900.093990520775</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0258744</v>
+        <v>-0.025632968051</v>
       </c>
       <c r="M3" t="n">
-        <v>-1031.2770356</v>
+        <v>-1098.92328753908</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7364117999999999</v>
+        <v>0.762216856865</v>
       </c>
       <c r="O3" t="n">
-        <v>-7.01e-05</v>
+        <v>-7.2238141e-05</v>
       </c>
     </row>
     <row r="4">
@@ -13939,34 +13939,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77555.43681129999</v>
+        <v>76996.1886114696</v>
       </c>
       <c r="G4" t="n">
-        <v>-38.3801358</v>
+        <v>-38.099059430592</v>
       </c>
       <c r="H4" t="n">
-        <v>8847069.6426787</v>
+        <v>8829724.978003133</v>
       </c>
       <c r="I4" t="n">
-        <v>-8794.934379</v>
+        <v>-8777.652300827358</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1858598</v>
+        <v>2.181555071382</v>
       </c>
       <c r="K4" t="n">
-        <v>1639.2652491</v>
+        <v>1629.27953342664</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0723386</v>
+        <v>-0.071310292131</v>
       </c>
       <c r="M4" t="n">
-        <v>2513.0579763</v>
+        <v>2403.716081269591</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1979464</v>
+        <v>-0.182567739858</v>
       </c>
       <c r="O4" t="n">
-        <v>4.3e-06</v>
+        <v>3.83118e-06</v>
       </c>
     </row>
     <row r="5">
@@ -13992,34 +13992,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-31243.4068966</v>
+        <v>-31243.40689655172</v>
       </c>
       <c r="G5" t="n">
-        <v>16.0009852</v>
+        <v>16.000985221675</v>
       </c>
       <c r="H5" t="n">
-        <v>-5024071.3965203</v>
+        <v>-5024071.396520345</v>
       </c>
       <c r="I5" t="n">
-        <v>5039.0557374</v>
+        <v>5039.055737421168</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.2633438</v>
+        <v>-1.263343750553</v>
       </c>
       <c r="K5" t="n">
-        <v>-212.4299783</v>
+        <v>-212.429978310973</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0202326</v>
+        <v>0.020232639352</v>
       </c>
       <c r="M5" t="n">
-        <v>-3106.8107945</v>
+        <v>-3106.810794497993</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1724369</v>
+        <v>0.172436921798</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.9e-06</v>
+        <v>-1.946366e-06</v>
       </c>
     </row>
     <row r="6">
@@ -14045,34 +14045,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-333253.3826965</v>
+        <v>-339595.4989658594</v>
       </c>
       <c r="G6" t="n">
-        <v>172.4109354</v>
+        <v>175.609137289153</v>
       </c>
       <c r="H6" t="n">
-        <v>-11608401.3254793</v>
+        <v>-11612316.61019</v>
       </c>
       <c r="I6" t="n">
-        <v>11470.6326848</v>
+        <v>11471.40075762421</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.8302159</v>
+        <v>-2.829607542848</v>
       </c>
       <c r="K6" t="n">
-        <v>341.4288638</v>
+        <v>288.095336522026</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3327816</v>
+        <v>0.335226717868</v>
       </c>
       <c r="M6" t="n">
-        <v>-6693.0387014</v>
+        <v>-7097.396404877381</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8017246</v>
+        <v>0.827388744543</v>
       </c>
       <c r="O6" t="n">
-        <v>-7.5e-06</v>
+        <v>-7.825053e-06</v>
       </c>
     </row>
     <row r="7">
@@ -14098,34 +14098,34 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-11795.7072583</v>
+        <v>-11795.7072583419</v>
       </c>
       <c r="G7" t="n">
-        <v>6.0608875</v>
+        <v>6.0608875129</v>
       </c>
       <c r="H7" t="n">
-        <v>-5847513.4901768</v>
+        <v>-5847513.490176801</v>
       </c>
       <c r="I7" t="n">
-        <v>5863.7847007</v>
+        <v>5863.784700703111</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.4699432</v>
+        <v>-1.469943240449</v>
       </c>
       <c r="K7" t="n">
-        <v>204.2374064</v>
+        <v>204.237406415352</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0028471</v>
+        <v>0.002847120802</v>
       </c>
       <c r="M7" t="n">
-        <v>-428.5285418</v>
+        <v>-428.528541825105</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0492979</v>
+        <v>0.049297899283</v>
       </c>
       <c r="O7" t="n">
-        <v>-8e-07</v>
+        <v>-7.81796e-07</v>
       </c>
     </row>
     <row r="8">
@@ -14151,34 +14151,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-45856.2103077</v>
+        <v>-43467.94706706084</v>
       </c>
       <c r="G8" t="n">
-        <v>23.5882091</v>
+        <v>22.388003734246</v>
       </c>
       <c r="H8" t="n">
-        <v>-17121055.8502077</v>
+        <v>-16724688.19864457</v>
       </c>
       <c r="I8" t="n">
-        <v>17069.2765882</v>
+        <v>16674.30784381537</v>
       </c>
       <c r="J8" t="n">
-        <v>-4.2539776</v>
+        <v>-4.155588547156</v>
       </c>
       <c r="K8" t="n">
-        <v>-2169.8495823</v>
+        <v>-2231.191271696821</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1899095</v>
+        <v>0.193503959306</v>
       </c>
       <c r="M8" t="n">
-        <v>2547.5537153</v>
+        <v>2700.315737957241</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.3025</v>
+        <v>-0.321975313317</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26e-05</v>
+        <v>1.3208577e-05</v>
       </c>
     </row>
     <row r="9">
@@ -14204,34 +14204,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-346128.3747914</v>
+        <v>-346422.2062416762</v>
       </c>
       <c r="G9" t="n">
-        <v>177.9397892</v>
+        <v>178.087962494833</v>
       </c>
       <c r="H9" t="n">
-        <v>-28241117.3208016</v>
+        <v>-28241293.6882877</v>
       </c>
       <c r="I9" t="n">
-        <v>28130.0138912</v>
+        <v>28130.04848988535</v>
       </c>
       <c r="J9" t="n">
-        <v>-7.0020226</v>
+        <v>-7.001995168122</v>
       </c>
       <c r="K9" t="n">
-        <v>-2226.276657</v>
+        <v>-2264.177350161888</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5413653</v>
+        <v>0.543701397008</v>
       </c>
       <c r="M9" t="n">
-        <v>-3019.7326958</v>
+        <v>-2977.28229977515</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6228977</v>
+        <v>0.617002933387</v>
       </c>
       <c r="O9" t="n">
-        <v>-2e-06</v>
+        <v>-1.782355e-06</v>
       </c>
     </row>
     <row r="10">
@@ -14257,34 +14257,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-147330.1642512</v>
+        <v>-152134.4612247428</v>
       </c>
       <c r="G10" t="n">
-        <v>76.5782609</v>
+        <v>79.000971334897</v>
       </c>
       <c r="H10" t="n">
-        <v>-27661693.3293103</v>
+        <v>-27664655.76091923</v>
       </c>
       <c r="I10" t="n">
-        <v>27647.2476577</v>
+        <v>27647.82880669601</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.9064803</v>
+        <v>-6.906020030503</v>
       </c>
       <c r="K10" t="n">
-        <v>-913.7794095</v>
+        <v>-1040.668118817968</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2129071</v>
+        <v>0.218179999121</v>
       </c>
       <c r="M10" t="n">
-        <v>-26998.3345258</v>
+        <v>-27120.92432634211</v>
       </c>
       <c r="N10" t="n">
-        <v>2.0398996</v>
+        <v>2.04487777538</v>
       </c>
       <c r="O10" t="n">
-        <v>-3.09e-05</v>
+        <v>-3.0867198e-05</v>
       </c>
     </row>
     <row r="11">
@@ -14310,34 +14310,34 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3363.2229616</v>
+        <v>3242.943186119926</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.6358315</v>
+        <v>-1.575176798152</v>
       </c>
       <c r="H11" t="n">
-        <v>59467.7681892</v>
+        <v>59393.46427944979</v>
       </c>
       <c r="I11" t="n">
-        <v>-57.8551908</v>
+        <v>-57.840614342948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.014083</v>
+        <v>0.014094550593</v>
       </c>
       <c r="K11" t="n">
-        <v>35.4892775</v>
+        <v>31.614441380256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0034131</v>
+        <v>0.003905911866</v>
       </c>
       <c r="M11" t="n">
-        <v>-53.9334536</v>
+        <v>-79.39570152365999</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0212482</v>
+        <v>0.026037456969</v>
       </c>
       <c r="O11" t="n">
-        <v>-9e-07</v>
+        <v>-1.068431e-06</v>
       </c>
     </row>
     <row r="12">
@@ -14363,34 +14363,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-372766.1477383</v>
+        <v>-385584.5119149475</v>
       </c>
       <c r="G12" t="n">
-        <v>194.3296443</v>
+        <v>200.793687855254</v>
       </c>
       <c r="H12" t="n">
-        <v>-6751024.3162038</v>
+        <v>-6758940.705896244</v>
       </c>
       <c r="I12" t="n">
-        <v>6585.6404747</v>
+        <v>6587.193455849396</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.6010298</v>
+        <v>-1.599799780533</v>
       </c>
       <c r="K12" t="n">
-        <v>839.1990598</v>
+        <v>598.558417137354</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5124596</v>
+        <v>0.523582722831</v>
       </c>
       <c r="M12" t="n">
-        <v>11143.1434981</v>
+        <v>11133.15776465701</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.2986177</v>
+        <v>-0.305726534846</v>
       </c>
       <c r="O12" t="n">
-        <v>1.54e-05</v>
+        <v>1.5721962e-05</v>
       </c>
     </row>
     <row r="13">
@@ -14416,34 +14416,34 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-75608.1350499</v>
+        <v>-75608.13504990876</v>
       </c>
       <c r="G13" t="n">
-        <v>37.7766684</v>
+        <v>37.776668418281</v>
       </c>
       <c r="H13" t="n">
-        <v>16765093.8633649</v>
+        <v>16765093.86336487</v>
       </c>
       <c r="I13" t="n">
-        <v>-16755.4984758</v>
+        <v>-16755.4984758089</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1864711</v>
+        <v>4.186471050983</v>
       </c>
       <c r="K13" t="n">
-        <v>-342.6009544</v>
+        <v>-342.600954375197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0485691</v>
+        <v>0.048569096556</v>
       </c>
       <c r="M13" t="n">
-        <v>-175.3414102</v>
+        <v>-175.341410219509</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01117</v>
+        <v>0.011170028593</v>
       </c>
       <c r="O13" t="n">
-        <v>1.9e-06</v>
+        <v>1.948061e-06</v>
       </c>
     </row>
     <row r="14">
@@ -14469,34 +14469,34 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-122859.1940925</v>
+        <v>-123521.2251227362</v>
       </c>
       <c r="G14" t="n">
-        <v>62.3185918</v>
+        <v>62.652826901758</v>
       </c>
       <c r="H14" t="n">
-        <v>-6999228.3018434</v>
+        <v>-7012293.155163432</v>
       </c>
       <c r="I14" t="n">
-        <v>6954.2223623</v>
+        <v>6966.953163771384</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.7267852</v>
+        <v>-1.729882494586</v>
       </c>
       <c r="K14" t="n">
-        <v>-1442.6323923</v>
+        <v>-1460.029124853954</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0372631</v>
+        <v>0.037582662501</v>
       </c>
       <c r="M14" t="n">
-        <v>-2214.0601651</v>
+        <v>-2194.614264883049</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0608393</v>
+        <v>0.060048130467</v>
       </c>
       <c r="O14" t="n">
-        <v>-2e-07</v>
+        <v>-1.49827e-07</v>
       </c>
     </row>
     <row r="15">
@@ -14522,34 +14522,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9066.3990338</v>
+        <v>8667.326141778452</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.3913043</v>
+        <v>-4.190059904092</v>
       </c>
       <c r="H15" t="n">
-        <v>531002.3190376</v>
+        <v>530755.7264824694</v>
       </c>
       <c r="I15" t="n">
-        <v>-527.3953299</v>
+        <v>-527.346955160778</v>
       </c>
       <c r="J15" t="n">
-        <v>0.131013</v>
+        <v>0.131051346082</v>
       </c>
       <c r="K15" t="n">
-        <v>8.3672301</v>
+        <v>3.702118096656</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0222901</v>
+        <v>0.023193672872</v>
       </c>
       <c r="M15" t="n">
-        <v>-845.4703998</v>
+        <v>-998.054209091473</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1946989</v>
+        <v>0.225459693733</v>
       </c>
       <c r="O15" t="n">
-        <v>-8.3e-06</v>
+        <v>-9.783509999999999e-06</v>
       </c>
     </row>
     <row r="16">
@@ -14575,34 +14575,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10563.0496829</v>
+        <v>10274.44352159469</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.1955603</v>
+        <v>-5.050093438538</v>
       </c>
       <c r="H16" t="n">
-        <v>384658.3953659</v>
+        <v>399361.7946067816</v>
       </c>
       <c r="I16" t="n">
-        <v>-380.2430001</v>
+        <v>-395.136759566819</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09399689999999999</v>
+        <v>0.097768378926</v>
       </c>
       <c r="K16" t="n">
-        <v>482.7287813</v>
+        <v>475.905365992614</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0081499</v>
+        <v>-0.007909667578999999</v>
       </c>
       <c r="M16" t="n">
-        <v>813.4185535</v>
+        <v>833.283187081701</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0279166</v>
+        <v>-0.029286969645</v>
       </c>
       <c r="O16" t="n">
-        <v>3e-07</v>
+        <v>3.04382e-07</v>
       </c>
     </row>
     <row r="17">
@@ -14628,34 +14628,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-10964.2402284</v>
+        <v>-11048.58774340889</v>
       </c>
       <c r="G17" t="n">
-        <v>5.7620553</v>
+        <v>5.80459009361</v>
       </c>
       <c r="H17" t="n">
-        <v>1666507.3578393</v>
+        <v>1666454.950468903</v>
       </c>
       <c r="I17" t="n">
-        <v>-1675.1423718</v>
+        <v>-1675.132090860376</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4210682</v>
+        <v>0.42107638591</v>
       </c>
       <c r="K17" t="n">
-        <v>196.9083171</v>
+        <v>194.844493013253</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0097734</v>
+        <v>0.009849985505999999</v>
       </c>
       <c r="M17" t="n">
-        <v>1996.443695</v>
+        <v>1996.725586754187</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1008477</v>
+        <v>-0.100938304863</v>
       </c>
       <c r="O17" t="n">
-        <v>1.6e-06</v>
+        <v>1.613738e-06</v>
       </c>
     </row>
     <row r="18">
@@ -14681,34 +14681,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-109312.267545</v>
+        <v>-108780.3078365601</v>
       </c>
       <c r="G18" t="n">
-        <v>56.2745718</v>
+        <v>56.006315208899</v>
       </c>
       <c r="H18" t="n">
-        <v>3870104.3527393</v>
+        <v>3870432.199044773</v>
       </c>
       <c r="I18" t="n">
-        <v>-3931.285648</v>
+        <v>-3931.349962594155</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9988878</v>
+        <v>0.998836892439</v>
       </c>
       <c r="K18" t="n">
-        <v>1181.3382757</v>
+        <v>1184.116877650622</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2503947</v>
+        <v>0.249672314544</v>
       </c>
       <c r="M18" t="n">
-        <v>-782.5197931</v>
+        <v>-811.923021107365</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7284804</v>
+        <v>0.735675161133</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.62e-05</v>
+        <v>-2.6539418e-05</v>
       </c>
     </row>
     <row r="19">
@@ -14734,34 +14734,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-98721.9681159</v>
+        <v>-98268.28964165112</v>
       </c>
       <c r="G19" t="n">
-        <v>49.8797101</v>
+        <v>49.650929202864</v>
       </c>
       <c r="H19" t="n">
-        <v>5894556.3218532</v>
+        <v>5894835.445957059</v>
       </c>
       <c r="I19" t="n">
-        <v>-5955.6634073</v>
+        <v>-5955.718163887671</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5043946</v>
+        <v>1.504351200389</v>
       </c>
       <c r="K19" t="n">
-        <v>-1472.3616759</v>
+        <v>-1456.992414670321</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1477453</v>
+        <v>0.14642317245</v>
       </c>
       <c r="M19" t="n">
-        <v>3673.262655</v>
+        <v>3656.102566686091</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.5896629</v>
+        <v>-0.586677476255</v>
       </c>
       <c r="O19" t="n">
-        <v>2.46e-05</v>
+        <v>2.4490728e-05</v>
       </c>
     </row>
     <row r="20">
@@ -14787,34 +14787,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>55795.9208608</v>
+        <v>54115.99129782436</v>
       </c>
       <c r="G20" t="n">
-        <v>-27.0544137</v>
+        <v>-26.207258966465</v>
       </c>
       <c r="H20" t="n">
-        <v>-3617152.2251575</v>
+        <v>-3618189.19799962</v>
       </c>
       <c r="I20" t="n">
-        <v>3653.4101654</v>
+        <v>3653.613591322838</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.9219600999999999</v>
+        <v>-0.921798948164</v>
       </c>
       <c r="K20" t="n">
-        <v>1546.8289155</v>
+        <v>1526.689886932609</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0182424</v>
+        <v>-0.012683860754</v>
       </c>
       <c r="M20" t="n">
-        <v>229.265841</v>
+        <v>-54.860143721928</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4001379</v>
+        <v>0.48928883527</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.02e-05</v>
+        <v>-3.6166767e-05</v>
       </c>
     </row>
     <row r="21">
@@ -14840,34 +14840,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-6037.7266685</v>
+        <v>-6539.85952966676</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2896906</v>
+        <v>3.542906139792</v>
       </c>
       <c r="H21" t="n">
-        <v>484601.0238266</v>
+        <v>484290.7796362943</v>
       </c>
       <c r="I21" t="n">
-        <v>-488.353118</v>
+        <v>-488.292256478942</v>
       </c>
       <c r="J21" t="n">
-        <v>0.123157</v>
+        <v>0.123205219498</v>
       </c>
       <c r="K21" t="n">
-        <v>-67.16529850000001</v>
+        <v>-85.30301330396399</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0323065</v>
+        <v>0.033647598091</v>
       </c>
       <c r="M21" t="n">
-        <v>-613.1268229</v>
+        <v>-790.173253782015</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0939078</v>
+        <v>0.113142504296</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.7e-06</v>
+        <v>-2.181165e-06</v>
       </c>
     </row>
     <row r="22">
@@ -14893,34 +14893,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-12162.9936661</v>
+        <v>-12831.28623168621</v>
       </c>
       <c r="G22" t="n">
-        <v>6.221668</v>
+        <v>6.557549687674</v>
       </c>
       <c r="H22" t="n">
-        <v>-589277.8147844</v>
+        <v>-754394.4158318827</v>
       </c>
       <c r="I22" t="n">
-        <v>582.4836041999999</v>
+        <v>747.0043987723431</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1438497</v>
+        <v>-0.1848293081</v>
       </c>
       <c r="K22" t="n">
-        <v>125.8659166</v>
+        <v>121.908409771695</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0154424</v>
+        <v>0.016213798387</v>
       </c>
       <c r="M22" t="n">
-        <v>-277.2769137</v>
+        <v>-379.153022079403</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08912249999999999</v>
+        <v>0.107803036322</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.1e-06</v>
+        <v>-3.815124e-06</v>
       </c>
     </row>
     <row r="23">
@@ -14946,34 +14946,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-61244.0247694</v>
+        <v>-62555.55628686756</v>
       </c>
       <c r="G23" t="n">
-        <v>31.0895916</v>
+        <v>31.75097056886</v>
       </c>
       <c r="H23" t="n">
-        <v>116150.7140428</v>
+        <v>115340.5834258386</v>
       </c>
       <c r="I23" t="n">
-        <v>-146.6681732</v>
+        <v>-146.509247565687</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0445285</v>
+        <v>0.044654369944</v>
       </c>
       <c r="K23" t="n">
-        <v>-807.2822379</v>
+        <v>-833.581060995682</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0479588</v>
+        <v>0.049000815246</v>
       </c>
       <c r="M23" t="n">
-        <v>-182.2582485</v>
+        <v>-203.290428320495</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0083304</v>
+        <v>0.009036890587</v>
       </c>
       <c r="O23" t="n">
-        <v>6e-07</v>
+        <v>5.92445e-07</v>
       </c>
     </row>
     <row r="24">
@@ -14999,34 +14999,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>33328.8407554</v>
+        <v>30889.14896968031</v>
       </c>
       <c r="G24" t="n">
-        <v>-15.7667984</v>
+        <v>-14.536510854744</v>
       </c>
       <c r="H24" t="n">
-        <v>-103259.7060826</v>
+        <v>-104766.6135136542</v>
       </c>
       <c r="I24" t="n">
-        <v>121.1012674</v>
+        <v>121.396881800883</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0342856</v>
+        <v>-0.034051456163</v>
       </c>
       <c r="K24" t="n">
-        <v>2685.4220482</v>
+        <v>2635.917278144047</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0214848</v>
+        <v>-0.019760748443</v>
       </c>
       <c r="M24" t="n">
-        <v>2920.7566307</v>
+        <v>2592.93564246227</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0339904</v>
+        <v>-0.017477890542</v>
       </c>
       <c r="O24" t="n">
-        <v>2e-07</v>
+        <v>-2.8846e-08</v>
       </c>
     </row>
     <row r="25">
@@ -15052,34 +15052,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>214612.4025472</v>
+        <v>213318.8275895954</v>
       </c>
       <c r="G25" t="n">
-        <v>-105.5895916</v>
+        <v>-104.937267699288</v>
       </c>
       <c r="H25" t="n">
-        <v>-451117.816551</v>
+        <v>-451916.7009414288</v>
       </c>
       <c r="I25" t="n">
-        <v>561.5029982</v>
+        <v>561.6597175883099</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1671074</v>
+        <v>-0.166983237741</v>
       </c>
       <c r="K25" t="n">
-        <v>9425.1977819</v>
+        <v>9389.819850777469</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1601121</v>
+        <v>-0.158701080461</v>
       </c>
       <c r="M25" t="n">
-        <v>7145.503893</v>
+        <v>7044.386825018321</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0185722</v>
+        <v>-0.013109698285</v>
       </c>
       <c r="O25" t="n">
-        <v>-2.1e-06</v>
+        <v>-2.124821e-06</v>
       </c>
     </row>
     <row r="26">
@@ -15105,34 +15105,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-12239.4666667</v>
+        <v>-12321.69701705259</v>
       </c>
       <c r="G26" t="n">
-        <v>6.4</v>
+        <v>6.441467114033</v>
       </c>
       <c r="H26" t="n">
-        <v>-327401.8518057</v>
+        <v>-327452.5854113487</v>
       </c>
       <c r="I26" t="n">
-        <v>322.2073431</v>
+        <v>322.217295621732</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0791101</v>
+        <v>-0.07910217328999999</v>
       </c>
       <c r="K26" t="n">
-        <v>172.8003541</v>
+        <v>170.623244363911</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0062272</v>
+        <v>0.00627715092</v>
       </c>
       <c r="M26" t="n">
-        <v>589.4080274</v>
+        <v>594.371816340716</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0097947</v>
+        <v>-0.01002995903</v>
       </c>
       <c r="O26" t="n">
-        <v>1e-07</v>
+        <v>1.45957e-07</v>
       </c>
     </row>
     <row r="27">
@@ -15158,34 +15158,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-40697.0713693</v>
+        <v>-41939.20827059064</v>
       </c>
       <c r="G27" t="n">
-        <v>20.8904564</v>
+        <v>21.516622263408</v>
       </c>
       <c r="H27" t="n">
-        <v>442788.9250481</v>
+        <v>435492.8652573482</v>
       </c>
       <c r="I27" t="n">
-        <v>-463.4423231</v>
+        <v>-456.750737143115</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1212904</v>
+        <v>0.119771268166</v>
       </c>
       <c r="K27" t="n">
-        <v>-935.7892352</v>
+        <v>-1001.491757392112</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0274879</v>
+        <v>0.028502624963</v>
       </c>
       <c r="M27" t="n">
-        <v>10461.7259211</v>
+        <v>8855.45724769247</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2734635</v>
+        <v>-0.231648323357</v>
       </c>
       <c r="O27" t="n">
-        <v>2e-06</v>
+        <v>1.701916e-06</v>
       </c>
     </row>
     <row r="28">
@@ -15211,34 +15211,34 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4520.1325828</v>
+        <v>4532.534516813919</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.1869694</v>
+        <v>-2.193223453288</v>
       </c>
       <c r="H28" t="n">
-        <v>-4611.862333</v>
+        <v>-4604.200306138251</v>
       </c>
       <c r="I28" t="n">
-        <v>6.9637135</v>
+        <v>6.962210415076</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0022923</v>
+        <v>-0.002293445701</v>
       </c>
       <c r="K28" t="n">
-        <v>57.2294884</v>
+        <v>57.372749351601</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0116393</v>
+        <v>0.011572018932</v>
       </c>
       <c r="M28" t="n">
-        <v>-430.442838</v>
+        <v>-448.996183424855</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1890557</v>
+        <v>0.195831742556</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.57e-05</v>
+        <v>-1.6294432e-05</v>
       </c>
     </row>
     <row r="29">
@@ -15264,34 +15264,34 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-2976.0694002</v>
+        <v>-2820.639394483699</v>
       </c>
       <c r="G29" t="n">
-        <v>1.5940497</v>
+        <v>1.515657877642</v>
       </c>
       <c r="H29" t="n">
-        <v>123815.9980806</v>
+        <v>124664.4004542073</v>
       </c>
       <c r="I29" t="n">
-        <v>-125.4568913</v>
+        <v>-126.229456315277</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0318262</v>
+        <v>0.032000043651</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.1267251</v>
+        <v>-11.058419302511</v>
       </c>
       <c r="L29" t="n">
-        <v>0.056809</v>
+        <v>0.055564421828</v>
       </c>
       <c r="M29" t="n">
-        <v>-2122.5737092</v>
+        <v>-2161.486577108014</v>
       </c>
       <c r="N29" t="n">
-        <v>1.1594702</v>
+        <v>1.179634006362</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0001392</v>
+        <v>-0.000141632829</v>
       </c>
     </row>
     <row r="30">
@@ -15317,34 +15317,34 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-35013.1466667</v>
+        <v>-35395.69130143052</v>
       </c>
       <c r="G30" t="n">
-        <v>17.5620513</v>
+        <v>17.753969141324</v>
       </c>
       <c r="H30" t="n">
-        <v>-108406.298207</v>
+        <v>-191798.8658388474</v>
       </c>
       <c r="I30" t="n">
-        <v>90.8280159</v>
+        <v>173.882096251899</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0182845</v>
+        <v>-0.03896283452</v>
       </c>
       <c r="K30" t="n">
-        <v>-178.0388486</v>
+        <v>-182.067965532359</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1380766</v>
+        <v>0.140883308851</v>
       </c>
       <c r="M30" t="n">
-        <v>-177.3607118</v>
+        <v>-189.787096535773</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1374576</v>
+        <v>0.147924588415</v>
       </c>
       <c r="O30" t="n">
-        <v>1e-07</v>
+        <v>-1.364904e-06</v>
       </c>
     </row>
     <row r="31">
@@ -15423,34 +15423,34 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-11540.6034379</v>
+        <v>-12895.37244685897</v>
       </c>
       <c r="G32" t="n">
-        <v>5.8230345</v>
+        <v>6.505718294044</v>
       </c>
       <c r="H32" t="n">
-        <v>1092537.3426658</v>
+        <v>1427293.877355777</v>
       </c>
       <c r="I32" t="n">
-        <v>-1102.4815185</v>
+        <v>-1439.428608606526</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2781279</v>
+        <v>0.362914392839</v>
       </c>
       <c r="K32" t="n">
-        <v>-218.8594121</v>
+        <v>-274.088350156547</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1086417</v>
+        <v>0.131498122053</v>
       </c>
       <c r="M32" t="n">
-        <v>-152.5479453</v>
+        <v>-94.784798573711</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0608577</v>
+        <v>0.001628474269</v>
       </c>
       <c r="O32" t="n">
-        <v>8e-06</v>
+        <v>2.1803546e-05</v>
       </c>
     </row>
     <row r="33">
@@ -15943,34 +15943,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-3362.9031622</v>
+        <v>-4155.251976771593</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9831324</v>
+        <v>2.384423251617</v>
       </c>
       <c r="H6" t="n">
-        <v>-2234587.9861555</v>
+        <v>-2204563.149681546</v>
       </c>
       <c r="I6" t="n">
-        <v>2245.7122958</v>
+        <v>2215.197154144083</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5640345</v>
+        <v>-0.556281363275</v>
       </c>
       <c r="K6" t="n">
-        <v>982.6638472</v>
+        <v>969.19405188634</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0110702</v>
+        <v>-0.010430334121</v>
       </c>
       <c r="M6" t="n">
-        <v>92.02063870000001</v>
+        <v>29.351246072645</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0511524</v>
+        <v>0.055207412047</v>
       </c>
       <c r="O6" t="n">
-        <v>-1e-06</v>
+        <v>-1.079371e-06</v>
       </c>
     </row>
     <row r="7">
@@ -16049,34 +16049,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-3080.8454393</v>
+        <v>-3189.019289293235</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6179854</v>
+        <v>1.672684480725</v>
       </c>
       <c r="H8" t="n">
-        <v>-204206.0447364</v>
+        <v>-200586.0923000809</v>
       </c>
       <c r="I8" t="n">
-        <v>203.6139872</v>
+        <v>199.928747288016</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0507145</v>
+        <v>-0.049776663907</v>
       </c>
       <c r="K8" t="n">
-        <v>33.5759019</v>
+        <v>26.970686623277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0066593</v>
+        <v>0.007135502284</v>
       </c>
       <c r="M8" t="n">
-        <v>-181.7825546</v>
+        <v>-175.452866899953</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0352105</v>
+        <v>0.034160291182</v>
       </c>
       <c r="O8" t="n">
-        <v>-9e-07</v>
+        <v>-8.49055e-07</v>
       </c>
     </row>
     <row r="9">
@@ -16102,34 +16102,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-10818.8637162</v>
+        <v>-10893.23397214517</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5799373</v>
+        <v>5.617602632543</v>
       </c>
       <c r="H9" t="n">
-        <v>-1031696.4792403</v>
+        <v>-1031411.780848736</v>
       </c>
       <c r="I9" t="n">
-        <v>1032.1786859</v>
+        <v>1031.889338430223</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2580691</v>
+        <v>-0.257995551232</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1515347</v>
+        <v>0.655356749677</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0152626</v>
+        <v>0.015379177193</v>
       </c>
       <c r="M9" t="n">
-        <v>-418.6665938</v>
+        <v>-418.585407263024</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0693378</v>
+        <v>0.06932355071</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.5e-06</v>
+        <v>-1.514294e-06</v>
       </c>
     </row>
     <row r="10">
@@ -16155,34 +16155,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-2036.3876128</v>
+        <v>-2180.157919860154</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2151157</v>
+        <v>1.287929263991</v>
       </c>
       <c r="H10" t="n">
-        <v>-247942.5655416</v>
+        <v>-241998.3654575817</v>
       </c>
       <c r="I10" t="n">
-        <v>248.4993844</v>
+        <v>242.458115615723</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.062163</v>
+        <v>-0.060628031542</v>
       </c>
       <c r="K10" t="n">
-        <v>300.8924947</v>
+        <v>298.297005378944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0029874</v>
+        <v>0.003124996542</v>
       </c>
       <c r="M10" t="n">
-        <v>171.8398241</v>
+        <v>174.050104697935</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0143546</v>
+        <v>0.014077854212</v>
       </c>
       <c r="O10" t="n">
-        <v>-2e-07</v>
+        <v>-2.16121e-07</v>
       </c>
     </row>
     <row r="11">
@@ -16208,34 +16208,34 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2560.5399074</v>
+        <v>2540.551654002641</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.2725997</v>
+        <v>-1.2625553253</v>
       </c>
       <c r="H11" t="n">
-        <v>225315.463559</v>
+        <v>222464.5526685333</v>
       </c>
       <c r="I11" t="n">
-        <v>-223.5310592</v>
+        <v>-220.690129328862</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0554399</v>
+        <v>0.054732155101</v>
       </c>
       <c r="K11" t="n">
-        <v>71.7752907</v>
+        <v>71.638784929208</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0059484</v>
+        <v>-0.005931065528</v>
       </c>
       <c r="M11" t="n">
-        <v>214.4924408</v>
+        <v>214.668251570455</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0344131</v>
+        <v>-0.034446145404</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4e-06</v>
+        <v>1.376605e-06</v>
       </c>
     </row>
     <row r="12">
@@ -16261,34 +16261,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2299.5589904</v>
+        <v>2363.778877123746</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.0729794</v>
+        <v>-1.10550408172</v>
       </c>
       <c r="H12" t="n">
-        <v>-962632.8232408999</v>
+        <v>-968643.5668726595</v>
       </c>
       <c r="I12" t="n">
-        <v>969.2670114</v>
+        <v>975.37591043532</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2439266</v>
+        <v>-0.245478709019</v>
       </c>
       <c r="K12" t="n">
-        <v>160.9486831</v>
+        <v>161.091666011485</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001824</v>
+        <v>0.00017369558</v>
       </c>
       <c r="M12" t="n">
-        <v>-220.8038139</v>
+        <v>-221.675986934372</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0383469</v>
+        <v>0.038463893508</v>
       </c>
       <c r="O12" t="n">
-        <v>-8e-07</v>
+        <v>-8.45634e-07</v>
       </c>
     </row>
     <row r="13">
@@ -16420,34 +16420,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2648.8142965</v>
+        <v>2602.955362958475</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.3089826</v>
+        <v>-1.285757027405</v>
       </c>
       <c r="H15" t="n">
-        <v>-192236.7009331</v>
+        <v>-190704.2212484385</v>
       </c>
       <c r="I15" t="n">
-        <v>194.6686968</v>
+        <v>193.111191749575</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0492654</v>
+        <v>-0.048869657234</v>
       </c>
       <c r="K15" t="n">
-        <v>85.97869059999999</v>
+        <v>85.44846034625</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0064242</v>
+        <v>-0.006321513984</v>
       </c>
       <c r="M15" t="n">
-        <v>48.5630393</v>
+        <v>33.290744566333</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0011308</v>
+        <v>0.004209723346</v>
       </c>
       <c r="O15" t="n">
-        <v>-4e-07</v>
+        <v>-5.09391e-07</v>
       </c>
     </row>
     <row r="16">
@@ -16473,34 +16473,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-728.3416529</v>
+        <v>-728.341652910872</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4627039</v>
+        <v>0.462703858001</v>
       </c>
       <c r="H16" t="n">
-        <v>-1508805.9966689</v>
+        <v>-1508805.99666893</v>
       </c>
       <c r="I16" t="n">
-        <v>1515.0379578</v>
+        <v>1515.037957821086</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.3802517</v>
+        <v>-0.380251726282</v>
       </c>
       <c r="K16" t="n">
-        <v>160.440654</v>
+        <v>160.440654043937</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0010063</v>
+        <v>0.001006308778</v>
       </c>
       <c r="M16" t="n">
-        <v>-1005.8499471</v>
+        <v>-1005.849947079262</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0774473</v>
+        <v>0.07744727973</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.2e-06</v>
+        <v>-1.158558e-06</v>
       </c>
     </row>
     <row r="17">
@@ -16526,34 +16526,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4275.6677716</v>
+        <v>4260.921943382406</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.1252048</v>
+        <v>-2.117736662911</v>
       </c>
       <c r="H17" t="n">
-        <v>-132723.4689453</v>
+        <v>-132462.7833161153</v>
       </c>
       <c r="I17" t="n">
-        <v>135.6416932</v>
+        <v>135.376750576744</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0346322</v>
+        <v>-0.034564886462</v>
       </c>
       <c r="K17" t="n">
-        <v>151.3416462</v>
+        <v>151.072886565457</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0033921</v>
+        <v>-0.00337932476</v>
       </c>
       <c r="M17" t="n">
-        <v>49.0326049</v>
+        <v>49.015532844971</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0045196</v>
+        <v>0.004521426835</v>
       </c>
       <c r="O17" t="n">
-        <v>-1e-07</v>
+        <v>-1.33198e-07</v>
       </c>
     </row>
     <row r="18">
@@ -16579,34 +16579,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2678.2684308</v>
+        <v>2614.556106371372</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.3199486</v>
+        <v>-1.287681033848</v>
       </c>
       <c r="H18" t="n">
-        <v>-198321.0493186</v>
+        <v>-195974.1683913369</v>
       </c>
       <c r="I18" t="n">
-        <v>200.8057959</v>
+        <v>198.420590436456</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0508109</v>
+        <v>-0.050204876337</v>
       </c>
       <c r="K18" t="n">
-        <v>91.8528001</v>
+        <v>91.26927946422801</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0068236</v>
+        <v>-0.00667193539</v>
       </c>
       <c r="M18" t="n">
-        <v>37.4633587</v>
+        <v>27.632757408781</v>
       </c>
       <c r="N18" t="n">
-        <v>0.006417</v>
+        <v>0.008822509829</v>
       </c>
       <c r="O18" t="n">
-        <v>-7e-07</v>
+        <v>-8.46113e-07</v>
       </c>
     </row>
     <row r="19">
@@ -16685,34 +16685,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5648.3735903</v>
+        <v>-5762.520995468123</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9327944</v>
+        <v>2.990532112325</v>
       </c>
       <c r="H20" t="n">
-        <v>-228311.3731192</v>
+        <v>-224292.9154558716</v>
       </c>
       <c r="I20" t="n">
-        <v>226.6165265</v>
+        <v>222.528018382501</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0561737</v>
+        <v>-0.055133818478</v>
       </c>
       <c r="K20" t="n">
-        <v>42.6670276</v>
+        <v>40.675226022906</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0254853</v>
+        <v>0.026035021736</v>
       </c>
       <c r="M20" t="n">
-        <v>-154.7222179</v>
+        <v>-185.567941268852</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08816450000000001</v>
+        <v>0.097842988883</v>
       </c>
       <c r="O20" t="n">
-        <v>-4.5e-06</v>
+        <v>-5.173712e-06</v>
       </c>
     </row>
     <row r="21">
@@ -16738,34 +16738,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1603.7279145</v>
+        <v>1381.863349924425</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7592998</v>
+        <v>-0.647810114068</v>
       </c>
       <c r="H21" t="n">
-        <v>-140625.50649</v>
+        <v>-232230.7107107288</v>
       </c>
       <c r="I21" t="n">
-        <v>141.1529418</v>
+        <v>232.437438182546</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0353984</v>
+        <v>-0.058138809671</v>
       </c>
       <c r="K21" t="n">
-        <v>69.75539980000001</v>
+        <v>64.71245868605099</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005216</v>
+        <v>0.000894514299</v>
       </c>
       <c r="M21" t="n">
-        <v>-211.8044922</v>
+        <v>-262.64285801199</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0322903</v>
+        <v>0.03781347995</v>
       </c>
       <c r="O21" t="n">
-        <v>-9e-07</v>
+        <v>-1.012975e-06</v>
       </c>
     </row>
     <row r="22">
@@ -16791,34 +16791,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-5212.6358118</v>
+        <v>-5191.698675581706</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6647756</v>
+        <v>2.654171803712</v>
       </c>
       <c r="H22" t="n">
-        <v>375515.177736</v>
+        <v>375726.3973681016</v>
       </c>
       <c r="I22" t="n">
-        <v>-380.196687</v>
+        <v>-380.411355834143</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0962447</v>
+        <v>0.096299253418</v>
       </c>
       <c r="K22" t="n">
-        <v>-21.7205749</v>
+        <v>-21.931840515243</v>
       </c>
       <c r="L22" t="n">
-        <v>0.013044</v>
+        <v>0.013085192649</v>
       </c>
       <c r="M22" t="n">
-        <v>-220.7122169</v>
+        <v>-234.203731541242</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0494126</v>
+        <v>0.051886464306</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.5e-06</v>
+        <v>-1.616256e-06</v>
       </c>
     </row>
     <row r="23">
@@ -16897,34 +16897,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-2754.7011612</v>
+        <v>-2856.997313902646</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4271956</v>
+        <v>1.479004281936</v>
       </c>
       <c r="H24" t="n">
-        <v>-113588.7483102</v>
+        <v>-109159.0675606492</v>
       </c>
       <c r="I24" t="n">
-        <v>112.8823715</v>
+        <v>108.38035407603</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0280179</v>
+        <v>-0.026874044861</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6435914</v>
+        <v>3.805539782316</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0022765</v>
+        <v>0.002350572741</v>
       </c>
       <c r="M24" t="n">
-        <v>-98.94932679999999</v>
+        <v>-100.966963823871</v>
       </c>
       <c r="N24" t="n">
-        <v>0.008745899999999999</v>
+        <v>0.008830922034999999</v>
       </c>
       <c r="O24" t="n">
-        <v>-1e-07</v>
+        <v>-9.1227e-08</v>
       </c>
     </row>
     <row r="25">
@@ -16950,34 +16950,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-2642.4163267</v>
+        <v>-2620.135099766309</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4366111</v>
+        <v>1.425326639094</v>
       </c>
       <c r="H25" t="n">
-        <v>-1547755.6349547</v>
+        <v>-1553619.852071808</v>
       </c>
       <c r="I25" t="n">
-        <v>1555.2088485</v>
+        <v>1561.168828244551</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.3905913</v>
+        <v>-0.392105590012</v>
       </c>
       <c r="K25" t="n">
-        <v>134.6732798</v>
+        <v>135.020274735411</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0026116</v>
+        <v>0.002595274464</v>
       </c>
       <c r="M25" t="n">
-        <v>-789.4026859000001</v>
+        <v>-789.108527466621</v>
       </c>
       <c r="N25" t="n">
-        <v>0.069379</v>
+        <v>0.069378127288</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.1e-06</v>
+        <v>-1.074029e-06</v>
       </c>
     </row>
     <row r="26">
@@ -17003,34 +17003,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-40104.2693976</v>
+        <v>-40412.02793621162</v>
       </c>
       <c r="G26" t="n">
-        <v>20.5884698</v>
+        <v>20.744336378876</v>
       </c>
       <c r="H26" t="n">
-        <v>-364933.9902427</v>
+        <v>-351580.3739701882</v>
       </c>
       <c r="I26" t="n">
-        <v>347.2385794</v>
+        <v>333.666898724232</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0821142</v>
+        <v>-0.07866593822</v>
       </c>
       <c r="K26" t="n">
-        <v>-62.4255059</v>
+        <v>-67.04944321535901</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0181249</v>
+        <v>0.018262044402</v>
       </c>
       <c r="M26" t="n">
-        <v>-48.9759819</v>
+        <v>-42.068900630482</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0174786</v>
+        <v>0.017060131546</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.2237e-08</v>
       </c>
     </row>
     <row r="27">
@@ -17056,34 +17056,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3043.0697401</v>
+        <v>2996.403887723808</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.5050602</v>
+        <v>-1.481425970966</v>
       </c>
       <c r="H27" t="n">
-        <v>-208865.8313353</v>
+        <v>-207348.8293635631</v>
       </c>
       <c r="I27" t="n">
-        <v>211.5914063</v>
+        <v>210.04963175088</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0535687</v>
+        <v>-0.05317701924</v>
       </c>
       <c r="K27" t="n">
-        <v>272.7273499</v>
+        <v>270.536716784887</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0032351</v>
+        <v>-0.003200322153</v>
       </c>
       <c r="M27" t="n">
-        <v>387.0720218</v>
+        <v>373.466355024122</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0063951</v>
+        <v>-0.006043802434</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.9368e-08</v>
       </c>
     </row>
     <row r="28">
@@ -17109,34 +17109,34 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-338.6056048</v>
+        <v>-393.255451339414</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2056712</v>
+        <v>0.233133458695</v>
       </c>
       <c r="H28" t="n">
-        <v>-1430722.8389662</v>
+        <v>-1485284.902835466</v>
       </c>
       <c r="I28" t="n">
-        <v>1427.4019419</v>
+        <v>1481.772985137383</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3559981</v>
+        <v>-0.369542749212</v>
       </c>
       <c r="K28" t="n">
-        <v>166.9801518</v>
+        <v>166.559231846647</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0152064</v>
+        <v>-0.015008733014</v>
       </c>
       <c r="M28" t="n">
-        <v>-174.2603157</v>
+        <v>-228.445607494483</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1089377</v>
+        <v>0.128727341251</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.1e-05</v>
+        <v>-1.271085e-05</v>
       </c>
     </row>
     <row r="29">
@@ -17321,34 +17321,34 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-8667.83893</v>
+        <v>-8716.680119771474</v>
       </c>
       <c r="G32" t="n">
-        <v>4.367017</v>
+        <v>4.391560330618</v>
       </c>
       <c r="H32" t="n">
-        <v>-1034883.427623</v>
+        <v>-1077864.270303576</v>
       </c>
       <c r="I32" t="n">
-        <v>1028.2954321</v>
+        <v>1071.125799811312</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.2554074</v>
+        <v>-0.266077151478</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.6586332</v>
+        <v>-4.817675526781</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0282537</v>
+        <v>0.028460665783</v>
       </c>
       <c r="M32" t="n">
-        <v>-50.4779234</v>
+        <v>-51.961271219207</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0657008</v>
+        <v>0.067017599813</v>
       </c>
       <c r="O32" t="n">
-        <v>-6.2e-06</v>
+        <v>-6.36232e-06</v>
       </c>
     </row>
     <row r="33">
@@ -17374,34 +17374,34 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-34223.4621356</v>
+        <v>-33521.36788581257</v>
       </c>
       <c r="G33" t="n">
-        <v>17.3091003</v>
+        <v>16.954410176211</v>
       </c>
       <c r="H33" t="n">
-        <v>2678884.3677611</v>
+        <v>2661780.426286449</v>
       </c>
       <c r="I33" t="n">
-        <v>-2705.4764814</v>
+        <v>-2688.001453669173</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6830872</v>
+        <v>0.6786242450660001</v>
       </c>
       <c r="K33" t="n">
-        <v>-1320.7559778</v>
+        <v>-1307.654957423707</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0385717</v>
+        <v>0.038113812364</v>
       </c>
       <c r="M33" t="n">
-        <v>-769.1440235</v>
+        <v>-432.340249791777</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0141096</v>
+        <v>-0.000694992867</v>
       </c>
       <c r="O33" t="n">
-        <v>3e-07</v>
+        <v>4.21047e-07</v>
       </c>
     </row>
     <row r="34">
@@ -19527,34 +19527,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>284.7776976</v>
+        <v>285.583629936203</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1418575</v>
+        <v>-0.142263700631</v>
       </c>
       <c r="H2" t="n">
-        <v>35630.5088348</v>
+        <v>35647.16884718722</v>
       </c>
       <c r="I2" t="n">
-        <v>-35.5420539</v>
+        <v>-35.558172488367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008863299999999999</v>
+        <v>0.008867235986</v>
       </c>
       <c r="K2" t="n">
-        <v>10.3272202</v>
+        <v>10.346505527492</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00027</v>
+        <v>-0.000270708226</v>
       </c>
       <c r="M2" t="n">
-        <v>46.1849888</v>
+        <v>46.192874003151</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0025821</v>
+        <v>-0.002582215949</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.5734e-08</v>
       </c>
     </row>
     <row r="3">
@@ -19580,34 +19580,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-13612.0989348</v>
+        <v>-13514.0970230987</v>
       </c>
       <c r="G3" t="n">
-        <v>6.8893825</v>
+        <v>6.839990485084</v>
       </c>
       <c r="H3" t="n">
-        <v>693628.7680193</v>
+        <v>695159.0379658556</v>
       </c>
       <c r="I3" t="n">
-        <v>-701.4412922</v>
+        <v>-702.9218302843</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1773487</v>
+        <v>0.177706171441</v>
       </c>
       <c r="K3" t="n">
-        <v>-151.5013149</v>
+        <v>-150.188517514367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0616552</v>
+        <v>0.061291004384</v>
       </c>
       <c r="M3" t="n">
-        <v>-212.1674913</v>
+        <v>-201.924379283113</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0855885</v>
+        <v>0.081681068084</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.2e-06</v>
+        <v>-1.86957e-06</v>
       </c>
     </row>
     <row r="4">
@@ -19633,34 +19633,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.3264915</v>
+        <v>6.307493540052</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0031472</v>
+        <v>-0.003137689184</v>
       </c>
       <c r="H4" t="n">
-        <v>1423.1246526</v>
+        <v>1448.049540248094</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.4167877</v>
+        <v>-1.441625340321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003526</v>
+        <v>0.000358804173</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1453699</v>
+        <v>0.145182829546</v>
       </c>
       <c r="L4" t="n">
-        <v>-8.8e-06</v>
+        <v>-8.817151e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8909601</v>
+        <v>0.909971317565</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.000116</v>
+        <v>-0.000118709922</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.785e-09</v>
       </c>
     </row>
     <row r="5">
@@ -19739,34 +19739,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-8266.324485700001</v>
+        <v>-8317.404305611817</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2645168</v>
+        <v>4.290282860833</v>
       </c>
       <c r="H6" t="n">
-        <v>278209.6695792</v>
+        <v>278490.4131541314</v>
       </c>
       <c r="I6" t="n">
-        <v>-282.8702108</v>
+        <v>-283.177774281362</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0719456</v>
+        <v>0.072029268369</v>
       </c>
       <c r="K6" t="n">
-        <v>-13.5587687</v>
+        <v>-13.375642135866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008184500000000001</v>
+        <v>0.008176004567</v>
       </c>
       <c r="M6" t="n">
-        <v>247.0068585</v>
+        <v>249.934314230489</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0093632</v>
+        <v>-0.009549984365</v>
       </c>
       <c r="O6" t="n">
-        <v>3e-07</v>
+        <v>2.83923e-07</v>
       </c>
     </row>
     <row r="7">
@@ -19898,34 +19898,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-11334.8423503</v>
+        <v>-11333.87760516745</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7713221</v>
+        <v>5.770835884394</v>
       </c>
       <c r="H9" t="n">
-        <v>-336738.1768073</v>
+        <v>-336768.9850688048</v>
       </c>
       <c r="I9" t="n">
-        <v>331.6760799</v>
+        <v>331.705886913627</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.08159859999999999</v>
+        <v>-0.08160578431</v>
       </c>
       <c r="K9" t="n">
-        <v>-146.7933861</v>
+        <v>-147.209708405631</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0159665</v>
+        <v>0.015991741848</v>
       </c>
       <c r="M9" t="n">
-        <v>-298.8673416</v>
+        <v>-298.566313955056</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0314265</v>
+        <v>0.031383842348</v>
       </c>
       <c r="O9" t="n">
-        <v>-4e-07</v>
+        <v>-3.71533e-07</v>
       </c>
     </row>
     <row r="10">
@@ -19951,34 +19951,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.1432844</v>
+        <v>106.884132066357</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0529347</v>
+        <v>-0.053308174696</v>
       </c>
       <c r="H10" t="n">
-        <v>16433.1109784</v>
+        <v>16439.01768028122</v>
       </c>
       <c r="I10" t="n">
-        <v>-16.4091863</v>
+        <v>-16.414697645353</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0040962</v>
+        <v>0.004097508561</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2932819</v>
+        <v>4.305705397456</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.000126</v>
+        <v>-0.00012649124</v>
       </c>
       <c r="M10" t="n">
-        <v>23.1201063</v>
+        <v>23.136871736666</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0014339</v>
+        <v>-0.001434711154</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.197e-08</v>
       </c>
     </row>
     <row r="11">
@@ -20322,34 +20322,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.1896544</v>
+        <v>5.235147216452</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0025892</v>
+        <v>-0.00261214515</v>
       </c>
       <c r="H17" t="n">
-        <v>1152.4588631</v>
+        <v>1153.2822516654</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.1516263</v>
+        <v>-1.15242291538</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002877</v>
+        <v>0.000287883152</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1713324</v>
+        <v>0.172402893203</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.3e-06</v>
+        <v>-4.343362e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>1.3739622</v>
+        <v>1.374183090826</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.660000000000001e-05</v>
+        <v>-7.6557669e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.035e-09</v>
       </c>
     </row>
     <row r="18">
@@ -20375,34 +20375,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-16630.6452036</v>
+        <v>-16792.59902037154</v>
       </c>
       <c r="G18" t="n">
-        <v>8.524532499999999</v>
+        <v>8.606555220679001</v>
       </c>
       <c r="H18" t="n">
-        <v>-913363.9575195001</v>
+        <v>-908602.8104779286</v>
       </c>
       <c r="I18" t="n">
-        <v>910.2832569</v>
+        <v>905.444360389271</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2266865</v>
+        <v>-0.225457016733</v>
       </c>
       <c r="K18" t="n">
-        <v>355.9590662</v>
+        <v>355.109775391349</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0097605</v>
+        <v>0.009981304401</v>
       </c>
       <c r="M18" t="n">
-        <v>92.1010775</v>
+        <v>71.46037954968099</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07399459999999999</v>
+        <v>0.079045261438</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.5e-06</v>
+        <v>-3.771413e-06</v>
       </c>
     </row>
     <row r="19">
@@ -20428,34 +20428,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.6289694</v>
+        <v>161.150677242488</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0800237</v>
+        <v>-0.08028659721500001</v>
       </c>
       <c r="H19" t="n">
-        <v>14941.6143103</v>
+        <v>14951.2810300581</v>
       </c>
       <c r="I19" t="n">
-        <v>-14.8837854</v>
+        <v>-14.893138009728</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0037065</v>
+        <v>0.003708758397</v>
       </c>
       <c r="K19" t="n">
-        <v>5.590907</v>
+        <v>5.605522096435</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002995</v>
+        <v>-0.000300706836</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9300867</v>
+        <v>14.922312962944</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0016142</v>
+        <v>-0.001612863053</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4.3333e-08</v>
       </c>
     </row>
     <row r="20">
@@ -20481,34 +20481,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2388.526866</v>
+        <v>2372.243054675261</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.1867605</v>
+        <v>-1.178553621961</v>
       </c>
       <c r="H20" t="n">
-        <v>-7019.6876442</v>
+        <v>-7259.033858903708</v>
       </c>
       <c r="I20" t="n">
-        <v>8.235951399999999</v>
+        <v>8.467519159707001</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0023592</v>
+        <v>-0.002415129433</v>
       </c>
       <c r="K20" t="n">
-        <v>42.0993597</v>
+        <v>41.947328916391</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0049232</v>
+        <v>-0.004881261434</v>
       </c>
       <c r="M20" t="n">
-        <v>105.3202235</v>
+        <v>106.16941487484</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0249984</v>
+        <v>-0.025264893319</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5e-06</v>
+        <v>1.468626e-06</v>
       </c>
     </row>
     <row r="21">
@@ -20587,34 +20587,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>445.8186397</v>
+        <v>444.015824687965</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2216724</v>
+        <v>-0.220763777294</v>
       </c>
       <c r="H22" t="n">
-        <v>8664.989332900001</v>
+        <v>8639.768963900355</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.4535082</v>
+        <v>-8.429107488184</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0020611</v>
+        <v>0.002055158917</v>
       </c>
       <c r="K22" t="n">
-        <v>5.8031343</v>
+        <v>5.78798259479</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.000387</v>
+        <v>-0.000384026807</v>
       </c>
       <c r="M22" t="n">
-        <v>14.9149846</v>
+        <v>15.008444585203</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0020523</v>
+        <v>-0.00206943908</v>
       </c>
       <c r="O22" t="n">
-        <v>1e-07</v>
+        <v>7.0205e-08</v>
       </c>
     </row>
     <row r="23">
@@ -20640,34 +20640,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-6371.5461016</v>
+        <v>-6455.26815173057</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2512608</v>
+        <v>3.293455847436</v>
       </c>
       <c r="H23" t="n">
-        <v>-360067.4985678</v>
+        <v>-361340.2202824829</v>
       </c>
       <c r="I23" t="n">
-        <v>357.4922335</v>
+        <v>358.723593313991</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0886933</v>
+        <v>-0.088990598107</v>
       </c>
       <c r="K23" t="n">
-        <v>-46.3606852</v>
+        <v>-48.023576514571</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0048788</v>
+        <v>0.004943229699</v>
       </c>
       <c r="M23" t="n">
-        <v>-235.9679183</v>
+        <v>-237.919736427841</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0166659</v>
+        <v>0.016747947798</v>
       </c>
       <c r="O23" t="n">
-        <v>-2e-07</v>
+        <v>-1.72651e-07</v>
       </c>
     </row>
     <row r="24">
@@ -20693,34 +20693,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-6476.9152239</v>
+        <v>-6512.96075647606</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3013883</v>
+        <v>3.319554845031</v>
       </c>
       <c r="H24" t="n">
-        <v>-284380.7122666</v>
+        <v>-284946.0058774105</v>
       </c>
       <c r="I24" t="n">
-        <v>281.6334152</v>
+        <v>282.180337496935</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0696875</v>
+        <v>-0.069819593841</v>
       </c>
       <c r="K24" t="n">
-        <v>-87.3785855</v>
+        <v>-87.826893577373</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0052089</v>
+        <v>0.005224407374</v>
       </c>
       <c r="M24" t="n">
-        <v>-413.2146206</v>
+        <v>-420.416656806989</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0223237</v>
+        <v>0.022684827604</v>
       </c>
       <c r="O24" t="n">
-        <v>-2e-07</v>
+        <v>-2.18758e-07</v>
       </c>
     </row>
     <row r="25">
@@ -20799,34 +20799,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>963.0826489</v>
+        <v>936.533721150872</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4738893</v>
+        <v>-0.460443382031</v>
       </c>
       <c r="H26" t="n">
-        <v>-135272.0107355</v>
+        <v>-134457.9095595926</v>
       </c>
       <c r="I26" t="n">
-        <v>136.5246836</v>
+        <v>135.697288144128</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0344391</v>
+        <v>-0.034228838011</v>
       </c>
       <c r="K26" t="n">
-        <v>40.8203764</v>
+        <v>40.409575349616</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.000405</v>
+        <v>-0.000392822346</v>
       </c>
       <c r="M26" t="n">
-        <v>-33.6602288</v>
+        <v>-33.411997069324</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0031741</v>
+        <v>0.003159025923</v>
       </c>
       <c r="O26" t="n">
-        <v>-0</v>
+        <v>-3.6163e-08</v>
       </c>
     </row>
     <row r="27">
@@ -21011,34 +21011,34 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>251.6387584</v>
+        <v>246.83041569338</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1242605</v>
+        <v>-0.121825328336</v>
       </c>
       <c r="H30" t="n">
-        <v>-41122.4091734</v>
+        <v>-41027.10503903502</v>
       </c>
       <c r="I30" t="n">
-        <v>41.481653</v>
+        <v>41.384792568975</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.010459</v>
+        <v>-0.010434393144</v>
       </c>
       <c r="K30" t="n">
-        <v>11.1199621</v>
+        <v>11.07662347869</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0029308</v>
+        <v>-0.002900936061</v>
       </c>
       <c r="M30" t="n">
-        <v>10.027851</v>
+        <v>9.777601654656999</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.0019876</v>
+        <v>-0.001779804539</v>
       </c>
       <c r="O30" t="n">
-        <v>-2e-07</v>
+        <v>-2.06137e-07</v>
       </c>
     </row>
     <row r="31">
@@ -21064,34 +21064,34 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4488.5150913</v>
+        <v>4411.917730504465</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.2131262</v>
+        <v>-2.174521947332</v>
       </c>
       <c r="H31" t="n">
-        <v>201910.8184124</v>
+        <v>200818.3145061038</v>
       </c>
       <c r="I31" t="n">
-        <v>-199.9396432</v>
+        <v>-198.882644357499</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0495059</v>
+        <v>0.049250672975</v>
       </c>
       <c r="K31" t="n">
-        <v>40.5242113</v>
+        <v>39.279533132887</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0002586</v>
+        <v>0.000728253054</v>
       </c>
       <c r="M31" t="n">
-        <v>281.6590979</v>
+        <v>272.720959608744</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1159731</v>
+        <v>-0.111740387011</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32e-05</v>
+        <v>1.2706051e-05</v>
       </c>
     </row>
     <row r="32">
@@ -21425,34 +21425,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-4171.993732</v>
+        <v>-4241.778144482039</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1428216</v>
+        <v>2.177992272892</v>
       </c>
       <c r="H2" t="n">
-        <v>-399614.2686826</v>
+        <v>-400689.0023799571</v>
       </c>
       <c r="I2" t="n">
-        <v>398.1944449</v>
+        <v>399.234251103311</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0991616</v>
+        <v>-0.099412712179</v>
       </c>
       <c r="K2" t="n">
-        <v>-23.9381047</v>
+        <v>-25.604859358199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0040059</v>
+        <v>0.00407020914</v>
       </c>
       <c r="M2" t="n">
-        <v>-499.7738557</v>
+        <v>-500.680647285396</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0346877</v>
+        <v>0.03470487031</v>
       </c>
       <c r="O2" t="n">
-        <v>-5e-07</v>
+        <v>-4.73588e-07</v>
       </c>
     </row>
     <row r="3">
@@ -21478,34 +21478,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-2750.6389312</v>
+        <v>-2704.603111658917</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3860188</v>
+        <v>1.362817173448</v>
       </c>
       <c r="H3" t="n">
-        <v>268161.9585335</v>
+        <v>268872.331968692</v>
       </c>
       <c r="I3" t="n">
-        <v>-269.9440357</v>
+        <v>-270.63132286772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06793440000000001</v>
+        <v>0.06810036249699999</v>
       </c>
       <c r="K3" t="n">
-        <v>-53.9441251</v>
+        <v>-53.362335064391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0146069</v>
+        <v>0.014445499286</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.053869300000001</v>
+        <v>-1.269192306515</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0034972</v>
+        <v>-0.006085375485</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7e-06</v>
+        <v>1.882481e-06</v>
       </c>
     </row>
     <row r="4">
@@ -21637,34 +21637,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-9674.435498000001</v>
+        <v>-9198.539053005557</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9199322</v>
+        <v>4.679876786346</v>
       </c>
       <c r="H6" t="n">
-        <v>-417037.5423471</v>
+        <v>-419590.2957511683</v>
       </c>
       <c r="I6" t="n">
-        <v>413.2197449</v>
+        <v>416.016366879586</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1023051</v>
+        <v>-0.103066291015</v>
       </c>
       <c r="K6" t="n">
-        <v>-151.1253613</v>
+        <v>-143.149897839303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009373100000000001</v>
+        <v>0.009005198927</v>
       </c>
       <c r="M6" t="n">
-        <v>-481.5866441</v>
+        <v>-435.951075373991</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0316279</v>
+        <v>0.028716532687</v>
       </c>
       <c r="O6" t="n">
-        <v>-4e-07</v>
+        <v>-3.15723e-07</v>
       </c>
     </row>
     <row r="7">
@@ -21796,34 +21796,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>898.2483654</v>
+        <v>876.375713766718</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4392429</v>
+        <v>-0.42821927629</v>
       </c>
       <c r="H9" t="n">
-        <v>-134393.7123544</v>
+        <v>-134732.13423644</v>
       </c>
       <c r="I9" t="n">
-        <v>135.0611931</v>
+        <v>135.388616697861</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.033926</v>
+        <v>-0.034005055262</v>
       </c>
       <c r="K9" t="n">
-        <v>47.0061041</v>
+        <v>46.541648289601</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0012273</v>
+        <v>-0.001199108878</v>
       </c>
       <c r="M9" t="n">
-        <v>-128.9083761</v>
+        <v>-128.577663307495</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0166564</v>
+        <v>0.016609522822</v>
       </c>
       <c r="O9" t="n">
-        <v>-4e-07</v>
+        <v>-4.29863e-07</v>
       </c>
     </row>
     <row r="10">
@@ -21849,34 +21849,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5558182</v>
+        <v>265.589165152064</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1332727</v>
+        <v>-0.131777136917</v>
       </c>
       <c r="H10" t="n">
-        <v>-28793.338143</v>
+        <v>-28815.78415373249</v>
       </c>
       <c r="I10" t="n">
-        <v>28.9807465</v>
+        <v>29.001689951579</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0072913</v>
+        <v>-0.007296118158</v>
       </c>
       <c r="K10" t="n">
-        <v>12.1811945</v>
+        <v>12.0894481254</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0003189</v>
+        <v>-0.000315087478</v>
       </c>
       <c r="M10" t="n">
-        <v>-49.582979</v>
+        <v>-49.701088592842</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0039721</v>
+        <v>0.003977562758</v>
       </c>
       <c r="O10" t="n">
-        <v>-1e-07</v>
+        <v>-7.209099999999999e-08</v>
       </c>
     </row>
     <row r="11">
@@ -22114,34 +22114,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>31.7783434</v>
+        <v>31.956831973219</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0158437</v>
+        <v>-0.015933749508</v>
       </c>
       <c r="H15" t="n">
-        <v>4239.456455</v>
+        <v>4238.620211810881</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.2331971</v>
+        <v>-4.232280987054</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0010567</v>
+        <v>0.00105646662</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1880964</v>
+        <v>0.187658108031</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.58e-05</v>
+        <v>-1.5704875e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7220597</v>
+        <v>0.729045479697</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0001236</v>
+        <v>-0.000125017156</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>5.287e-09</v>
       </c>
     </row>
     <row r="16">
@@ -22220,34 +22220,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3100.2528558</v>
+        <v>-3025.200232114079</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5784563</v>
+        <v>1.540630519494</v>
       </c>
       <c r="H17" t="n">
-        <v>-189392.0178422</v>
+        <v>-188320.5597262296</v>
       </c>
       <c r="I17" t="n">
-        <v>188.1572836</v>
+        <v>187.120646526042</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0467148</v>
+        <v>-0.046464480302</v>
       </c>
       <c r="K17" t="n">
-        <v>-42.4651824</v>
+        <v>-40.765817833269</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0026671</v>
+        <v>0.002605637579</v>
       </c>
       <c r="M17" t="n">
-        <v>-186.2103466</v>
+        <v>-185.688880119492</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0113037</v>
+        <v>0.011313984135</v>
       </c>
       <c r="O17" t="n">
-        <v>-1e-07</v>
+        <v>-1.24771e-07</v>
       </c>
     </row>
     <row r="18">
@@ -22273,34 +22273,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-2696.2148502</v>
+        <v>-2655.884484048</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3679669</v>
+        <v>1.347541251884</v>
       </c>
       <c r="H18" t="n">
-        <v>106926.9053002</v>
+        <v>105386.3293396251</v>
       </c>
       <c r="I18" t="n">
-        <v>-108.8694957</v>
+        <v>-107.303762205175</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0277118</v>
+        <v>0.027313967587</v>
       </c>
       <c r="K18" t="n">
-        <v>-21.9690366</v>
+        <v>-21.607578459293</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0074721</v>
+        <v>0.007378157696</v>
       </c>
       <c r="M18" t="n">
-        <v>-80.11730489999999</v>
+        <v>-77.17668707056499</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0216279</v>
+        <v>0.020908320588</v>
       </c>
       <c r="O18" t="n">
-        <v>-8e-07</v>
+        <v>-7.38849e-07</v>
       </c>
     </row>
     <row r="19">
@@ -22326,34 +22326,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>80.7095439</v>
+        <v>80.238144173338</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0401117</v>
+        <v>-0.039874086216</v>
       </c>
       <c r="H19" t="n">
-        <v>-4548.727795</v>
+        <v>-4556.257980191753</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5964593</v>
+        <v>4.603744768153</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0011609</v>
+        <v>-0.001162643163</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9778927</v>
+        <v>2.970838559158</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001489</v>
+        <v>-0.000148316726</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.838857</v>
+        <v>-3.839740050576</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0008107</v>
+        <v>0.0008108701</v>
       </c>
       <c r="O19" t="n">
-        <v>-0</v>
+        <v>-3.1677e-08</v>
       </c>
     </row>
     <row r="20">
@@ -22379,34 +22379,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>308.722365</v>
+        <v>307.452964766038</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1535018</v>
+        <v>-0.152862081219</v>
       </c>
       <c r="H20" t="n">
-        <v>4109.3258916</v>
+        <v>4091.29349756801</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.9599618</v>
+        <v>-3.942515467902</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000953</v>
+        <v>0.000948832094</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3527566</v>
+        <v>2.342742646349</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.000271</v>
+        <v>-0.000268248545</v>
       </c>
       <c r="M20" t="n">
-        <v>4.9012937</v>
+        <v>4.891112163325</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0010803</v>
+        <v>-0.001077082848</v>
       </c>
       <c r="O20" t="n">
-        <v>1e-07</v>
+        <v>5.8276e-08</v>
       </c>
     </row>
     <row r="21">
@@ -22485,34 +22485,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1500.2324627</v>
+        <v>-1456.428161204059</v>
       </c>
       <c r="G22" t="n">
-        <v>0.757988</v>
+        <v>0.735911088754</v>
       </c>
       <c r="H22" t="n">
-        <v>157706.5941659</v>
+        <v>158368.9283477229</v>
       </c>
       <c r="I22" t="n">
-        <v>-158.694165</v>
+        <v>-159.334974119361</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0399229</v>
+        <v>0.040077647652</v>
       </c>
       <c r="K22" t="n">
-        <v>-33.2158302</v>
+        <v>-32.917125098667</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004194</v>
+        <v>0.004135728023</v>
       </c>
       <c r="M22" t="n">
-        <v>-27.8958066</v>
+        <v>-21.345727213354</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0032216</v>
+        <v>0.002020587151</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>8.810599999999999e-08</v>
       </c>
     </row>
     <row r="23">
@@ -22538,34 +22538,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>628.4485859</v>
+        <v>621.05521216153</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.3108436</v>
+        <v>-0.307117460736</v>
       </c>
       <c r="H23" t="n">
-        <v>-12368.9962739</v>
+        <v>-12478.8714685172</v>
       </c>
       <c r="I23" t="n">
-        <v>12.7066293</v>
+        <v>12.812933736024</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0032593</v>
+        <v>-0.003284924603</v>
       </c>
       <c r="K23" t="n">
-        <v>25.1486282</v>
+        <v>25.030956150187</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0005082</v>
+        <v>-0.000503603323</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9232294</v>
+        <v>0.784155550326</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0009978000000000001</v>
+        <v>0.001003676477</v>
       </c>
       <c r="O23" t="n">
-        <v>-0</v>
+        <v>-2.2045e-08</v>
       </c>
     </row>
     <row r="24">
@@ -22591,34 +22591,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-2110.1408713</v>
+        <v>-2133.034455885141</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0720863</v>
+        <v>1.083624481764</v>
       </c>
       <c r="H24" t="n">
-        <v>123106.7275071</v>
+        <v>122789.335880155</v>
       </c>
       <c r="I24" t="n">
-        <v>-124.3377323</v>
+        <v>-124.030655497139</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0313996</v>
+        <v>0.031325409506</v>
       </c>
       <c r="K24" t="n">
-        <v>-29.9908625</v>
+        <v>-30.277625909683</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0015577</v>
+        <v>0.00156760618</v>
       </c>
       <c r="M24" t="n">
-        <v>43.5783328</v>
+        <v>42.245332311254</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0023066</v>
+        <v>-0.002239730867</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.7701e-08</v>
       </c>
     </row>
     <row r="25">
@@ -22962,34 +22962,34 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2710.5773699</v>
+        <v>2683.826637368175</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.3451828</v>
+        <v>-1.331700729436</v>
       </c>
       <c r="H31" t="n">
-        <v>-76538.12226410001</v>
+        <v>-76940.12022847572</v>
       </c>
       <c r="I31" t="n">
-        <v>78.0256334</v>
+        <v>78.414566927834</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0198725</v>
+        <v>-0.01996642183</v>
       </c>
       <c r="K31" t="n">
-        <v>66.6489237</v>
+        <v>66.461498482808</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0121725</v>
+        <v>-0.012101833098</v>
       </c>
       <c r="M31" t="n">
-        <v>181.736372</v>
+        <v>182.631799998272</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0676469</v>
+        <v>-0.06807097287199999</v>
       </c>
       <c r="O31" t="n">
-        <v>6.3e-06</v>
+        <v>6.323067e-06</v>
       </c>
     </row>
     <row r="32">
@@ -23323,34 +23323,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-30034.594233</v>
+        <v>-30086.70953678332</v>
       </c>
       <c r="G2" t="n">
-        <v>15.3357487</v>
+        <v>15.360762942779</v>
       </c>
       <c r="H2" t="n">
-        <v>-6455494.2393396</v>
+        <v>-6600529.6538684</v>
       </c>
       <c r="I2" t="n">
-        <v>6411.6248782</v>
+        <v>6556.015057874417</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.5918014</v>
+        <v>-1.627737851396</v>
       </c>
       <c r="K2" t="n">
-        <v>-1152.5318621</v>
+        <v>-1167.407300487539</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0490392</v>
+        <v>0.049348979031</v>
       </c>
       <c r="M2" t="n">
-        <v>-11607.0954242</v>
+        <v>-11139.72929819995</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5883534</v>
+        <v>0.5640365969359999</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.9e-06</v>
+        <v>-6.623391e-06</v>
       </c>
     </row>
     <row r="3">
@@ -23376,19 +23376,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>99.2</v>
+        <v>99.199999999996</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.2</v>
+        <v>99.199999988713</v>
       </c>
       <c r="I3" t="n">
+        <v>1.1e-11</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>99.2</v>
@@ -23397,13 +23397,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.2</v>
+        <v>99.19999999999899</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>-0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -23429,34 +23429,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5998.0360551</v>
+        <v>5960.374206292522</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.911877</v>
+        <v>-2.893410469874</v>
       </c>
       <c r="H4" t="n">
-        <v>-2666557.110695</v>
+        <v>-2754914.747504272</v>
       </c>
       <c r="I4" t="n">
-        <v>2657.0140025</v>
+        <v>2744.973808631798</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6618347999999999</v>
+        <v>-0.68372542817</v>
       </c>
       <c r="K4" t="n">
-        <v>288.8200145</v>
+        <v>287.562702401728</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008732200000000001</v>
+        <v>-0.008690286518000001</v>
       </c>
       <c r="M4" t="n">
-        <v>-859.5487462999999</v>
+        <v>-878.753431256779</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1367374</v>
+        <v>0.139264684365</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.5e-06</v>
+        <v>-4.622564e-06</v>
       </c>
     </row>
     <row r="5">
@@ -23535,34 +23535,34 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-100575.8666667</v>
+        <v>-100586.676023393</v>
       </c>
       <c r="G6" t="n">
-        <v>52.0070175</v>
+        <v>52.00701754386</v>
       </c>
       <c r="H6" t="n">
-        <v>-31367683.8609281</v>
+        <v>-31751027.90978483</v>
       </c>
       <c r="I6" t="n">
-        <v>31179.2747158</v>
+        <v>31560.90653147133</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.7469556</v>
+        <v>-7.841936165736</v>
       </c>
       <c r="K6" t="n">
-        <v>602.2300447</v>
+        <v>382.871286740524</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0865219</v>
+        <v>0.091716773695</v>
       </c>
       <c r="M6" t="n">
-        <v>-36907.1046943</v>
+        <v>-35048.69802958026</v>
       </c>
       <c r="N6" t="n">
-        <v>2.0495469</v>
+        <v>1.947292388234</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.55e-05</v>
+        <v>-2.4157901e-05</v>
       </c>
     </row>
     <row r="7">
@@ -23588,34 +23588,34 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-414.2854719</v>
+        <v>-418.332947650595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2093319</v>
+        <v>0.211316494991</v>
       </c>
       <c r="H7" t="n">
-        <v>-8924.185567</v>
+        <v>283.376386924724</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6790181</v>
+        <v>-0.487086726022</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0021074</v>
+        <v>0.000173776971</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3572241</v>
+        <v>1.915058400267</v>
       </c>
       <c r="L7" t="n">
-        <v>7.91e-05</v>
+        <v>8.6064969e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>11.3125402</v>
+        <v>8.910457394001</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0002456</v>
+        <v>-0.000167069442</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.22e-09</v>
       </c>
     </row>
     <row r="8">
@@ -23641,34 +23641,34 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2224.5794274</v>
+        <v>2218.785155919005</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.0920467</v>
+        <v>-1.089205587696</v>
       </c>
       <c r="H8" t="n">
-        <v>-1141657.9710591</v>
+        <v>-1204422.022076278</v>
       </c>
       <c r="I8" t="n">
-        <v>1137.3850406</v>
+        <v>1199.866496229569</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2832725</v>
+        <v>-0.298822281415</v>
       </c>
       <c r="K8" t="n">
-        <v>-8.642000700000001</v>
+        <v>-10.00995464772</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0018822</v>
+        <v>0.001957137649</v>
       </c>
       <c r="M8" t="n">
-        <v>-567.0596038</v>
+        <v>-579.043101240208</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0564099</v>
+        <v>0.057489524305</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.3e-06</v>
+        <v>-1.337771e-06</v>
       </c>
     </row>
     <row r="9">
@@ -23694,34 +23694,34 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>26774.1157895</v>
+        <v>26768.94502924013</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.0421053</v>
+        <v>-13.042105263158</v>
       </c>
       <c r="H9" t="n">
-        <v>-11775774.3146997</v>
+        <v>-11721623.82270408</v>
       </c>
       <c r="I9" t="n">
-        <v>11736.7201236</v>
+        <v>11682.81149862886</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.9242813</v>
+        <v>-2.910864510675</v>
       </c>
       <c r="K9" t="n">
-        <v>1679.0932943</v>
+        <v>1674.978979583779</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0429394</v>
+        <v>-0.042981252693</v>
       </c>
       <c r="M9" t="n">
-        <v>-32660.9243043</v>
+        <v>-31346.35253386402</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6171542</v>
+        <v>2.515173100576</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.14e-05</v>
+        <v>-4.9458074e-05</v>
       </c>
     </row>
     <row r="10">
@@ -23747,34 +23747,34 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24370.0126316</v>
+        <v>24370.29450292422</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.5242105</v>
+        <v>-11.524210526316</v>
       </c>
       <c r="H10" t="n">
-        <v>-1846148.9204949</v>
+        <v>-2038399.835648077</v>
       </c>
       <c r="I10" t="n">
-        <v>1850.628937</v>
+        <v>2042.021149907027</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4634527</v>
+        <v>-0.511086451078</v>
       </c>
       <c r="K10" t="n">
-        <v>3018.5600506</v>
+        <v>3055.176716874352</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0503059</v>
+        <v>-0.051268199262</v>
       </c>
       <c r="M10" t="n">
-        <v>-5630.3961916</v>
+        <v>-6716.810083960153</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4336279</v>
+        <v>0.495733102545</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.8e-06</v>
+        <v>-7.645485000000001e-06</v>
       </c>
     </row>
     <row r="11">
@@ -23853,34 +23853,34 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>64803.1621053</v>
+        <v>64810.48608187201</v>
       </c>
       <c r="G12" t="n">
-        <v>-32.0378947</v>
+        <v>-32.037894736842</v>
       </c>
       <c r="H12" t="n">
-        <v>3464296.9808729</v>
+        <v>2384749.728719952</v>
       </c>
       <c r="I12" t="n">
-        <v>-3416.3276779</v>
+        <v>-2341.602299694522</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8422822</v>
+        <v>0.574804481075</v>
       </c>
       <c r="K12" t="n">
-        <v>-3394.7877114</v>
+        <v>-3347.993251688329</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1193999</v>
+        <v>0.118069750703</v>
       </c>
       <c r="M12" t="n">
-        <v>-7509.3838996</v>
+        <v>-11075.93800387151</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3771367</v>
+        <v>0.602378969196</v>
       </c>
       <c r="O12" t="n">
-        <v>-4e-06</v>
+        <v>-7.575894e-06</v>
       </c>
     </row>
     <row r="13">
@@ -24012,34 +24012,34 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-26267.4290562</v>
+        <v>-26349.1201354575</v>
       </c>
       <c r="G15" t="n">
-        <v>13.1813362</v>
+        <v>13.221391279807</v>
       </c>
       <c r="H15" t="n">
-        <v>-283547.8162445</v>
+        <v>-103448.8371673908</v>
       </c>
       <c r="I15" t="n">
-        <v>269.2459345</v>
+        <v>89.95785189262899</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0637132</v>
+        <v>-0.019093597036</v>
       </c>
       <c r="K15" t="n">
-        <v>-427.808514</v>
+        <v>-442.676946126763</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0555276</v>
+        <v>0.056572743681</v>
       </c>
       <c r="M15" t="n">
-        <v>-222.492772</v>
+        <v>-163.210800107264</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0202984</v>
+        <v>0.008537185579</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5e-06</v>
+        <v>2.041129e-06</v>
       </c>
     </row>
     <row r="16">
@@ -24065,34 +24065,34 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-18377.6553114</v>
+        <v>-18426.72552225208</v>
       </c>
       <c r="G16" t="n">
-        <v>9.463822499999999</v>
+        <v>9.487375113533</v>
       </c>
       <c r="H16" t="n">
-        <v>-5004473.5237984</v>
+        <v>-5064641.877747637</v>
       </c>
       <c r="I16" t="n">
-        <v>4972.9236469</v>
+        <v>5032.824323351743</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.2352228</v>
+        <v>-1.250131152368</v>
       </c>
       <c r="K16" t="n">
-        <v>-449.677534</v>
+        <v>-451.416630842242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0247168</v>
+        <v>0.024721230608</v>
       </c>
       <c r="M16" t="n">
-        <v>-12143.7665979</v>
+        <v>-12135.71364793735</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5595498</v>
+        <v>0.5591804245799999</v>
       </c>
       <c r="O16" t="n">
-        <v>-6.1e-06</v>
+        <v>-6.097327e-06</v>
       </c>
     </row>
     <row r="17">
@@ -24118,34 +24118,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1462.4271474</v>
+        <v>-1470.989925215126</v>
       </c>
       <c r="G17" t="n">
-        <v>0.754825</v>
+        <v>0.759023564273</v>
       </c>
       <c r="H17" t="n">
-        <v>-147816.6354253</v>
+        <v>-136950.539150142</v>
       </c>
       <c r="I17" t="n">
-        <v>146.4174306</v>
+        <v>135.60025895604</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0362433</v>
+        <v>-0.033551250498</v>
       </c>
       <c r="K17" t="n">
-        <v>-27.7037828</v>
+        <v>-28.88987159373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0019049</v>
+        <v>0.001928725374</v>
       </c>
       <c r="M17" t="n">
-        <v>-224.432914</v>
+        <v>-154.02148156705</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0112008</v>
+        <v>0.007845563735</v>
       </c>
       <c r="O17" t="n">
-        <v>-1e-07</v>
+        <v>-6.975600000000001e-08</v>
       </c>
     </row>
     <row r="18">
@@ -24171,34 +24171,34 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7125.8366914</v>
+        <v>7107.658755466355</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.3873807</v>
+        <v>-3.378467616762</v>
       </c>
       <c r="H18" t="n">
-        <v>-1007537.7583769</v>
+        <v>-1031711.526452833</v>
       </c>
       <c r="I18" t="n">
-        <v>1006.4813806</v>
+        <v>1030.54630614816</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2512725</v>
+        <v>-0.257261578625</v>
       </c>
       <c r="K18" t="n">
-        <v>411.4307385</v>
+        <v>410.911697457269</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0087413</v>
+        <v>-0.00871981046</v>
       </c>
       <c r="M18" t="n">
-        <v>447.7832744</v>
+        <v>457.684923245199</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0157602</v>
+        <v>-0.017778864149</v>
       </c>
       <c r="O18" t="n">
-        <v>3e-07</v>
+        <v>4.22525e-07</v>
       </c>
     </row>
     <row r="19">
@@ -24224,34 +24224,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-4976.8721103</v>
+        <v>-5064.285593339564</v>
       </c>
       <c r="G19" t="n">
-        <v>2.523754</v>
+        <v>2.566614928743</v>
       </c>
       <c r="H19" t="n">
-        <v>-490583.6544921</v>
+        <v>-311981.8146619988</v>
       </c>
       <c r="I19" t="n">
-        <v>485.8357819</v>
+        <v>308.038097671115</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1202562</v>
+        <v>-0.07600753736599999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9736418</v>
+        <v>-4.814332830278</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0048692</v>
+        <v>0.005107752769</v>
       </c>
       <c r="M19" t="n">
-        <v>3749.9055003</v>
+        <v>4485.015370413767</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3760838</v>
+        <v>-0.451211359312</v>
       </c>
       <c r="O19" t="n">
-        <v>9.7e-06</v>
+        <v>1.1579098e-05</v>
       </c>
     </row>
     <row r="20">
@@ -24277,34 +24277,34 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35464.809324</v>
+        <v>34794.72201964266</v>
       </c>
       <c r="G20" t="n">
-        <v>-17.4993007</v>
+        <v>-17.166900420761</v>
       </c>
       <c r="H20" t="n">
-        <v>-6355751.962457</v>
+        <v>-6370832.50705069</v>
       </c>
       <c r="I20" t="n">
-        <v>6334.0391605</v>
+        <v>6348.676974231341</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.578022</v>
+        <v>-1.581572260197</v>
       </c>
       <c r="K20" t="n">
-        <v>774.4287622000001</v>
+        <v>754.644374397957</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0611607</v>
+        <v>-0.059175765196</v>
       </c>
       <c r="M20" t="n">
-        <v>2606.7091429</v>
+        <v>2550.850946617813</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.4723149</v>
+        <v>-0.461913989685</v>
       </c>
       <c r="O20" t="n">
-        <v>2.27e-05</v>
+        <v>2.2257127e-05</v>
       </c>
     </row>
     <row r="21">
@@ -24330,34 +24330,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-129.4176471</v>
+        <v>-133.312322274866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0705882</v>
+        <v>0.072511848341</v>
       </c>
       <c r="H21" t="n">
-        <v>-22774.1739497</v>
+        <v>-18137.23347695192</v>
       </c>
       <c r="I21" t="n">
-        <v>22.5971989</v>
+        <v>17.982906970169</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0056022</v>
+        <v>-0.004454313907</v>
       </c>
       <c r="K21" t="n">
-        <v>10.2987791</v>
+        <v>10.224431340067</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001065</v>
+        <v>0.000109095967</v>
       </c>
       <c r="M21" t="n">
-        <v>-8.6457409</v>
+        <v>-6.788596475818</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0019502</v>
+        <v>0.001765883145</v>
       </c>
       <c r="O21" t="n">
-        <v>-0</v>
+        <v>-4.0137e-08</v>
       </c>
     </row>
     <row r="22">
@@ -24383,19 +24383,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>60.8</v>
+        <v>60.800000000001</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>60.8</v>
+        <v>60.800000000727</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1e-12</v>
       </c>
       <c r="J22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>60.8</v>
@@ -24407,10 +24407,10 @@
         <v>60.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24436,34 +24436,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2582.9989396</v>
+        <v>2575.130577112758</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.2408271</v>
+        <v>-1.236969098349</v>
       </c>
       <c r="H23" t="n">
-        <v>-890898.0352736</v>
+        <v>-931847.3335452853</v>
       </c>
       <c r="I23" t="n">
-        <v>888.0180264000001</v>
+        <v>928.782950224655</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.2212627</v>
+        <v>-0.231407930895</v>
       </c>
       <c r="K23" t="n">
-        <v>166.2991932</v>
+        <v>165.471948876638</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0017837</v>
+        <v>-0.001766534284</v>
       </c>
       <c r="M23" t="n">
-        <v>-421.2688453</v>
+        <v>-425.847549701093</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0259706</v>
+        <v>0.026192039301</v>
       </c>
       <c r="O23" t="n">
-        <v>-3e-07</v>
+        <v>-3.29483e-07</v>
       </c>
     </row>
     <row r="24">
@@ -24489,34 +24489,34 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>20441.1766702</v>
+        <v>20363.0386905589</v>
       </c>
       <c r="G24" t="n">
-        <v>-10.0981972</v>
+        <v>-10.059884295188</v>
       </c>
       <c r="H24" t="n">
-        <v>2158563.6218013</v>
+        <v>2490827.491851914</v>
       </c>
       <c r="I24" t="n">
-        <v>-2138.1168584</v>
+        <v>-2468.884708864599</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5294872</v>
+        <v>0.611805783149</v>
       </c>
       <c r="K24" t="n">
-        <v>905.1208033</v>
+        <v>912.05353475763</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0157291</v>
+        <v>-0.015860631817</v>
       </c>
       <c r="M24" t="n">
-        <v>2129.4880255</v>
+        <v>2094.959754136155</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.067625</v>
+        <v>-0.066085633256</v>
       </c>
       <c r="O24" t="n">
-        <v>5e-07</v>
+        <v>5.30387e-07</v>
       </c>
     </row>
     <row r="25">
@@ -24542,34 +24542,34 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35244.4308772</v>
+        <v>35246.39111111125</v>
       </c>
       <c r="G25" t="n">
-        <v>-17.2533333</v>
+        <v>-17.253333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>-1757207.2913343</v>
+        <v>-2249630.152884868</v>
       </c>
       <c r="I25" t="n">
-        <v>1767.1817543</v>
+        <v>2257.405174419267</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.4441103</v>
+        <v>-0.566117099988</v>
       </c>
       <c r="K25" t="n">
-        <v>2410.5891846</v>
+        <v>2488.112235382644</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0421863</v>
+        <v>-0.043851020946</v>
       </c>
       <c r="M25" t="n">
-        <v>-3431.5891657</v>
+        <v>-4379.073915787785</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2283912</v>
+        <v>0.27440131882</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.1e-06</v>
+        <v>-3.677998e-06</v>
       </c>
     </row>
     <row r="26">
@@ -24595,34 +24595,34 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-12268.407211</v>
+        <v>-12353.25085367532</v>
       </c>
       <c r="G26" t="n">
-        <v>6.2223754</v>
+        <v>6.263976294624</v>
       </c>
       <c r="H26" t="n">
-        <v>-2649572.4518391</v>
+        <v>-2621573.997394415</v>
       </c>
       <c r="I26" t="n">
-        <v>2631.0637333</v>
+        <v>2603.191341983327</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6531051</v>
+        <v>-0.646168513052</v>
       </c>
       <c r="K26" t="n">
-        <v>-940.6953723</v>
+        <v>-948.9027060234559</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0161047</v>
+        <v>0.016199837477</v>
       </c>
       <c r="M26" t="n">
-        <v>-7637.9024187</v>
+        <v>-7012.585905972731</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2024003</v>
+        <v>0.184915047342</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.3e-06</v>
+        <v>-1.172114e-06</v>
       </c>
     </row>
     <row r="27">
@@ -24648,34 +24648,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4206.9798515</v>
+        <v>4241.801326372276</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.0757158</v>
+        <v>-2.092789614788</v>
       </c>
       <c r="H27" t="n">
-        <v>2089668.083296</v>
+        <v>2145489.69715944</v>
       </c>
       <c r="I27" t="n">
-        <v>-2077.6818886</v>
+        <v>-2133.252165372658</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5164461</v>
+        <v>0.530275934208</v>
       </c>
       <c r="K27" t="n">
-        <v>272.3446325</v>
+        <v>276.074434276137</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0029159</v>
+        <v>-0.002954384409</v>
       </c>
       <c r="M27" t="n">
-        <v>5048.0613866</v>
+        <v>5171.579601838351</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.1223202</v>
+        <v>-0.12543612389</v>
       </c>
       <c r="O27" t="n">
-        <v>7e-07</v>
+        <v>7.63715e-07</v>
       </c>
     </row>
     <row r="28">
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2583.0129167</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2583.0129167</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -25592,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>417.7713333</v>
+        <v>417.771333333333</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -25607,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>417.7713333</v>
+        <v>417.771333333333</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>785.2521053</v>
+        <v>785.252105333333</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>785.2521053</v>
+        <v>785.252105333333</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>763.5463066</v>
+        <v>763.546306583333</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>763.5463066</v>
+        <v>763.546306583333</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>

--- a/output/endemo2_industry_coef_total.xlsx
+++ b/output/endemo2_industry_coef_total.xlsx
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>785.4211831</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>785.4211831</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>448.2032</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>448.2032</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3360.67775</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3360.67775</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>542.34525</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>542.34525</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>15.867666666667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>15.867666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>471.7058</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>471.7058</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>304.94484775</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>304.94484775</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>42.774075</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>42.774075</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>123.3148508</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>123.3148508</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10.395588888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10.395588888889</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.003025925926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.003025925926</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.223068</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.223068</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>52.975622</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>52.975622</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>417.771333333333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>417.771333333333</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>785.252105333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>785.252105333333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.59425</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>325.59425</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>304.979</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>304.979</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2028.428</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2028.428</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>750.921272</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>750.921272</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>399.19604</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>399.19604</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>313.3929835</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>313.3929835</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>763.546306583333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>763.546306583333</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50.6763</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>50.6763</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.480067</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.480067</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.25165</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.25165</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1129.557</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1129.557</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.637166</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>13.637166</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>477.34</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>477.34</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.010061</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.010061</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.164385</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.164385</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2648.985992</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2648.985992</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2496.33775</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2496.33775</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>467.836</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>467.836</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>297.15986625</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>297.15986625</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>35.9296656</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.9296656</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>206.7047</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>206.7047</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3838.2545</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3838.2545</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1219.6806</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1219.6806</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>360.031</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.031</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>357.43625</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>357.43625</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.4879005</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>142.4879005</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>240.649509</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>240.649509</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>33.81251725</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>33.81251725</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>267.8821</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>267.8821</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>175.260333333333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>175.260333333333</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.660763</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>49.660763</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>785.4211831</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>785.4211831</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>448.2032</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>448.2032</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3360.67775</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3360.67775</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>542.34525</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>542.34525</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1104.729655666667</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>15.867666666667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>15.867666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>952.7279166666671</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>471.7058</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -12648,7 +12648,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>471.7058</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2320.453033333334</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>552.7848750000001</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>304.94484775</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>304.94484775</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>42.774075</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>42.774075</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>123.3148508</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>123.3148508</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10.395588888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10.395588888889</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>66.77306912500001</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.003025925926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.003025925926</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1696.262079019608</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1696.262079019608</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>170.676</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>170.676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1448.77159254902</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1448.77159254902</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>346.909473333333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -17812,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>346.909473333333</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7038.415612352941</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7038.415612352941</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>23.40166</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>23.40166</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>322.559306666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>322.559306666667</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3402.259192941176</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3402.259192941176</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5747.494365882352</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>5747.494365882352</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>450.008</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>450.008</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5078.750479411765</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>5078.750479411765</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>27.441176470588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>27.441176470588</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7745</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>307.7745</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>612.838243333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>612.838243333333</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1308.136059607843</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1308.136059607843</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2365.38289</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2365.38289</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1442.6083</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -18554,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1442.6083</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>450.041493333333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>450.041493333333</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.5559</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>112.5559</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>341.567122745098</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>341.567122745098</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>580.896342745098</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>580.896342745098</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>447.412193333333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -18819,7 +18819,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>447.412193333333</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3363.471782941177</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3363.471782941177</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -19190,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -19334,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>51.16062</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>51.16062</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>134.958333333333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -19402,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>134.958333333333</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -19642,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -19695,7 +19695,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -20013,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -20066,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -20081,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -20278,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -20399,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -20558,7 +20558,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -20717,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -21073,7 +21073,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -27128,7 +27128,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27181,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27196,7 +27196,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27234,7 +27234,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27249,7 +27249,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27287,7 +27287,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.223068</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27302,7 +27302,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.223068</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -27340,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27355,7 +27355,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2583.012916666667</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -27446,7 +27446,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>52.975622</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>52.975622</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>417.771333333333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>417.771333333333</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>785.252105333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -27567,7 +27567,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>785.252105333333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.59425</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -27620,7 +27620,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>325.59425</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>304.979</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>304.979</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -27885,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2028.428</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2028.428</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>750.921272</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28097,7 +28097,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>750.921272</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28188,7 +28188,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>399.19604</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -28203,7 +28203,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>399.19604</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>313.3929835</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -28362,7 +28362,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>313.3929835</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -28680,7 +28680,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -28824,7 +28824,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>763.546306583333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -28839,7 +28839,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>763.546306583333</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50.6763</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>50.6763</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -29026,7 +29026,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.480067</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.480067</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -29147,7 +29147,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.25165</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -29200,7 +29200,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.25165</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1129.557</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1129.557</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -29397,7 +29397,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -29412,7 +29412,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.637166</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>13.637166</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -29503,7 +29503,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.001312</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -29768,7 +29768,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>477.34</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29783,7 +29783,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>477.34</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.010061</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.010061</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.164385</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -30260,7 +30260,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.164385</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30313,7 +30313,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30578,7 +30578,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2648.985992</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -30939,7 +30939,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2648.985992</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -31030,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -31045,7 +31045,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31136,7 +31136,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -31151,7 +31151,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4942.245083333333</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -31295,7 +31295,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -31310,7 +31310,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -31348,7 +31348,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2622.984889583333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -31454,7 +31454,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -31469,7 +31469,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>580.3920000000001</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -31666,7 +31666,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2496.33775</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2496.33775</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -31772,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>467.836</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -31787,7 +31787,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>467.836</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -31825,7 +31825,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>297.15986625</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>297.15986625</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>35.9296656</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31999,7 +31999,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.9296656</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -32037,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -32052,7 +32052,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>206.7047</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>206.7047</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -32822,7 +32822,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -32837,7 +32837,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1193.046502272727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -32928,7 +32928,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3838.2545</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -33049,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3838.2545</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -33193,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1219.6806</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -33208,7 +33208,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1219.6806</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -33246,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -33261,7 +33261,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2176.817359833333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -33352,7 +33352,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -33367,7 +33367,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>360.031</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -33526,7 +33526,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.031</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -33564,7 +33564,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -33579,7 +33579,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1980.527181818182</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -33617,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -33632,7 +33632,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -33670,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>357.43625</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -33685,7 +33685,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>357.43625</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -33723,7 +33723,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.4879005</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -33738,7 +33738,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>142.4879005</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>240.649509</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -33791,7 +33791,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>240.649509</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -33882,7 +33882,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>33.81251725</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>33.81251725</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -33935,7 +33935,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -33988,7 +33988,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>267.8821</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>267.8821</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -34094,7 +34094,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>175.260333333333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -34109,7 +34109,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>175.260333333333</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -34518,7 +34518,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.660763</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -34533,7 +34533,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>49.660763</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
